--- a/docs/cs534L-SAGmf.xlsx
+++ b/docs/cs534L-SAGmf.xlsx
@@ -1757,14 +1757,14 @@
   <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" style="11" customWidth="1"/>
     <col min="2" max="4" width="10.5546875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="28" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="11.21875" style="28" customWidth="1"/>
     <col min="7" max="7" width="2.88671875" style="28" customWidth="1"/>
     <col min="8" max="9" width="7.5546875" style="32" customWidth="1"/>
@@ -3670,16 +3670,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/cs534L-SAGmf.xlsx
+++ b/docs/cs534L-SAGmf.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="143">
   <si>
     <t>Dataset</t>
   </si>
@@ -480,6 +480,9 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>SVRG-old</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -680,6 +683,15 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1343,23 +1355,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="56"/>
+      <c r="C1" s="59"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="57" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57" t="s">
+      <c r="H1" s="60"/>
+      <c r="I1" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="57"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
@@ -1754,10 +1766,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1765,65 +1777,69 @@
     <col min="1" max="1" width="10.77734375" style="11" customWidth="1"/>
     <col min="2" max="4" width="10.5546875" style="28" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" style="28" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" style="28" customWidth="1"/>
-    <col min="7" max="7" width="2.88671875" style="28" customWidth="1"/>
-    <col min="8" max="9" width="7.5546875" style="32" customWidth="1"/>
-    <col min="10" max="11" width="8.77734375" style="32" customWidth="1"/>
-    <col min="12" max="12" width="3" style="31" customWidth="1"/>
-    <col min="13" max="17" width="8.109375" style="24" customWidth="1"/>
-    <col min="18" max="18" width="6.6640625" style="24" customWidth="1"/>
-    <col min="19" max="20" width="8.33203125" style="24" customWidth="1"/>
-    <col min="21" max="21" width="2.109375" style="24" customWidth="1"/>
-    <col min="22" max="23" width="7" style="11" customWidth="1"/>
-    <col min="24" max="24" width="8" style="11" customWidth="1"/>
-    <col min="25" max="26" width="7" style="11" customWidth="1"/>
-    <col min="27" max="27" width="7.44140625" style="11" customWidth="1"/>
+    <col min="6" max="7" width="11.21875" style="28" customWidth="1"/>
+    <col min="8" max="8" width="2.88671875" style="28" customWidth="1"/>
+    <col min="9" max="10" width="7.5546875" style="32" customWidth="1"/>
+    <col min="11" max="13" width="8.77734375" style="32" customWidth="1"/>
+    <col min="14" max="14" width="3" style="31" customWidth="1"/>
+    <col min="15" max="20" width="8.109375" style="24" customWidth="1"/>
+    <col min="21" max="21" width="6.6640625" style="24" customWidth="1"/>
+    <col min="22" max="24" width="8.33203125" style="24" customWidth="1"/>
+    <col min="25" max="25" width="2.109375" style="24" customWidth="1"/>
+    <col min="26" max="27" width="7" style="11" customWidth="1"/>
+    <col min="28" max="28" width="8" style="11" customWidth="1"/>
+    <col min="29" max="30" width="7" style="11" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
       <c r="E1" s="27"/>
       <c r="F1" s="53"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="56"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="61" t="s">
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="61" t="s">
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="60" t="s">
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60" t="s">
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-    </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+    </row>
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -1840,67 +1856,79 @@
         <v>132</v>
       </c>
       <c r="F2" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="J2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="K2" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="L2" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="M2" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="30"/>
+      <c r="O2" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="P2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="Q2" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="P2" s="53" t="s">
+      <c r="R2" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="T2" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="U2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="V2" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="X2" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="U2" s="26"/>
-      <c r="V2" s="27" t="s">
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="AA2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="44" t="s">
+      <c r="AB2" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="AC2" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="AD2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="43" t="s">
+      <c r="AE2" s="43" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>106</v>
       </c>
@@ -1910,46 +1938,50 @@
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
-      <c r="H3" s="32">
+      <c r="H3" s="32"/>
+      <c r="I3" s="32">
         <v>500</v>
-      </c>
-      <c r="I3" s="32">
-        <v>5000</v>
       </c>
       <c r="J3" s="32">
         <v>5000</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="36"/>
+      <c r="K3" s="32">
+        <v>5000</v>
+      </c>
+      <c r="L3" s="32"/>
       <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
+      <c r="N3" s="36"/>
       <c r="O3" s="32"/>
       <c r="P3" s="32"/>
       <c r="Q3" s="32"/>
       <c r="R3" s="32"/>
       <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
       <c r="U3" s="32"/>
       <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
       <c r="Y3" s="32"/>
       <c r="Z3" s="32"/>
       <c r="AA3" s="32"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="27"/>
       <c r="F5" s="53"/>
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="56"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>79</v>
       </c>
@@ -1969,53 +2001,65 @@
       <c r="F6" s="28">
         <v>1.2579</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="32">
+      <c r="G6" s="28">
+        <v>0.31109999999999999</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="32">
         <v>500</v>
       </c>
-      <c r="I6" s="32">
+      <c r="J6" s="32">
         <v>2473</v>
       </c>
-      <c r="J6" s="32">
+      <c r="K6" s="32">
         <v>2474</v>
       </c>
-      <c r="K6" s="32">
+      <c r="L6" s="32">
         <v>587</v>
       </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="24">
+      <c r="M6" s="32">
+        <v>2473</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="24">
         <v>7.2293000000000003</v>
       </c>
-      <c r="N6" s="24">
+      <c r="P6" s="24">
         <v>1.8E-3</v>
       </c>
-      <c r="O6" s="24">
+      <c r="Q6" s="24">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="P6" s="24">
+      <c r="R6" s="24">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="S6" s="24">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="T6" s="24">
         <v>7.8907999999999996</v>
       </c>
-      <c r="R6" s="24">
+      <c r="U6" s="24">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="S6" s="24">
+      <c r="V6" s="24">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="T6" s="25">
+      <c r="W6" s="25">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
+      <c r="X6" s="25">
+        <v>6.6E-3</v>
+      </c>
       <c r="Y6" s="24"/>
       <c r="Z6" s="24"/>
       <c r="AA6" s="24"/>
-    </row>
-    <row r="7" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+    </row>
+    <row r="7" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>80</v>
       </c>
@@ -2035,53 +2079,65 @@
       <c r="F7" s="28">
         <v>1.4046000000000001</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="32">
+      <c r="G7" s="28">
+        <v>0.3125</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="32">
         <v>500</v>
       </c>
-      <c r="I7" s="34">
+      <c r="J7" s="34">
         <v>915</v>
       </c>
-      <c r="J7" s="34">
+      <c r="K7" s="34">
         <v>4489</v>
       </c>
-      <c r="K7" s="34">
+      <c r="L7" s="34">
         <v>121</v>
       </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="24">
+      <c r="M7" s="34">
+        <v>915</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="24">
         <v>1.8077000000000001</v>
       </c>
-      <c r="N7" s="24">
+      <c r="P7" s="24">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="O7" s="24">
+      <c r="Q7" s="24">
         <v>1.8E-3</v>
       </c>
-      <c r="P7" s="24">
+      <c r="R7" s="24">
         <v>2E-3</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="S7" s="24">
+        <v>1.9E-3</v>
+      </c>
+      <c r="T7" s="24">
         <v>2.0920000000000001</v>
       </c>
-      <c r="R7" s="24">
+      <c r="U7" s="24">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="S7" s="24">
+      <c r="V7" s="24">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="T7" s="25">
+      <c r="W7" s="25">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
+      <c r="X7" s="25">
+        <v>5.7000000000000002E-3</v>
+      </c>
       <c r="Y7" s="24"/>
       <c r="Z7" s="24"/>
       <c r="AA7" s="24"/>
-    </row>
-    <row r="8" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+    </row>
+    <row r="8" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>25</v>
       </c>
@@ -2101,53 +2157,65 @@
       <c r="F8" s="28">
         <v>1.0246</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="32">
+      <c r="G8" s="28">
+        <v>0.2979</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="32">
         <v>500</v>
       </c>
-      <c r="I8" s="32">
+      <c r="J8" s="32">
         <v>4144</v>
       </c>
-      <c r="J8" s="32">
+      <c r="K8" s="32">
         <v>4145</v>
       </c>
-      <c r="K8" s="32">
+      <c r="L8" s="32">
         <v>1887</v>
       </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="24">
+      <c r="M8" s="32">
+        <v>4144</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="24">
         <v>2.0480999999999998</v>
       </c>
-      <c r="N8" s="24">
+      <c r="P8" s="24">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="O8" s="24">
+      <c r="Q8" s="24">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="P8" s="24">
+      <c r="R8" s="24">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="S8" s="24">
+        <v>3.3E-3</v>
+      </c>
+      <c r="T8" s="24">
         <v>2.3018999999999998</v>
       </c>
-      <c r="R8" s="24">
+      <c r="U8" s="24">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="S8" s="24">
+      <c r="V8" s="24">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="T8" s="25">
+      <c r="W8" s="25">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
+      <c r="X8" s="25">
+        <v>8.0999999999999996E-3</v>
+      </c>
       <c r="Y8" s="24"/>
       <c r="Z8" s="24"/>
       <c r="AA8" s="24"/>
-    </row>
-    <row r="9" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+    </row>
+    <row r="9" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>81</v>
       </c>
@@ -2167,53 +2235,65 @@
       <c r="F9" s="28">
         <v>43.808500000000002</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="32">
+      <c r="G9" s="28">
+        <v>0.31590000000000001</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="32">
         <v>500</v>
       </c>
-      <c r="I9" s="34">
+      <c r="J9" s="34">
         <v>1862</v>
       </c>
-      <c r="J9" s="34">
+      <c r="K9" s="34">
         <v>1357</v>
       </c>
-      <c r="K9" s="34">
+      <c r="L9" s="34">
         <v>954</v>
       </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="24">
+      <c r="M9" s="34">
+        <v>1862</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="24">
         <v>6.2801</v>
       </c>
-      <c r="N9" s="24">
+      <c r="P9" s="24">
         <v>1.4E-3</v>
       </c>
-      <c r="O9" s="24">
+      <c r="Q9" s="24">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="P9" s="24">
+      <c r="R9" s="24">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="S9" s="24">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="T9" s="24">
         <v>7.0240999999999998</v>
       </c>
-      <c r="R9" s="24">
+      <c r="U9" s="24">
         <v>2.3E-3</v>
       </c>
-      <c r="S9" s="24">
+      <c r="V9" s="24">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="T9" s="25">
+      <c r="W9" s="25">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
+      <c r="X9" s="25">
+        <v>5.7999999999999996E-3</v>
+      </c>
       <c r="Y9" s="24"/>
       <c r="Z9" s="24"/>
       <c r="AA9" s="24"/>
-    </row>
-    <row r="10" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+    </row>
+    <row r="10" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>82</v>
       </c>
@@ -2233,63 +2313,75 @@
       <c r="F10" s="28">
         <v>0.84350000000000003</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="32">
+      <c r="G10" s="28">
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="32">
         <v>500</v>
       </c>
-      <c r="I10" s="32">
+      <c r="J10" s="32">
         <v>3856</v>
       </c>
-      <c r="J10" s="32">
+      <c r="K10" s="32">
         <v>3857</v>
       </c>
-      <c r="K10" s="32">
+      <c r="L10" s="32">
         <v>270</v>
       </c>
-      <c r="L10" s="31"/>
-      <c r="M10" s="24">
+      <c r="M10" s="32">
+        <v>3856</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="24">
         <v>4.0510999999999999</v>
       </c>
-      <c r="N10" s="24">
+      <c r="P10" s="24">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="O10" s="24">
+      <c r="Q10" s="24">
         <v>2.8E-3</v>
       </c>
-      <c r="P10" s="24">
+      <c r="R10" s="24">
         <v>2.8E-3</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="S10" s="24">
+        <v>2.8E-3</v>
+      </c>
+      <c r="T10" s="24">
         <v>4.2845000000000004</v>
       </c>
-      <c r="R10" s="24">
+      <c r="U10" s="24">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="S10" s="24">
+      <c r="V10" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="T10" s="25">
+      <c r="W10" s="25">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
+      <c r="X10" s="25">
+        <v>3.8E-3</v>
+      </c>
       <c r="Y10" s="24"/>
       <c r="Z10" s="24"/>
       <c r="AA10" s="24"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>79</v>
       </c>
@@ -2309,44 +2401,56 @@
       <c r="F13" s="28">
         <v>-6.7100000000000007E-2</v>
       </c>
-      <c r="H13" s="32">
+      <c r="G13" s="28">
+        <v>-0.27350000000000002</v>
+      </c>
+      <c r="I13" s="32">
         <v>500</v>
       </c>
-      <c r="I13" s="32">
+      <c r="J13" s="32">
         <v>1867</v>
       </c>
-      <c r="J13" s="32">
+      <c r="K13" s="32">
         <v>1868</v>
       </c>
-      <c r="K13" s="32">
+      <c r="L13" s="32">
         <v>4228</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="32">
+        <v>1867</v>
+      </c>
+      <c r="O13" s="24">
         <v>38.302199999999999</v>
       </c>
-      <c r="N13" s="24">
+      <c r="P13" s="24">
         <v>3.3E-3</v>
       </c>
-      <c r="O13" s="24">
+      <c r="Q13" s="24">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="P13" s="24">
+      <c r="R13" s="24">
         <v>1.35E-2</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="S13" s="24">
+        <v>1.54E-2</v>
+      </c>
+      <c r="T13" s="24">
         <v>40.990699999999997</v>
       </c>
-      <c r="R13" s="24">
+      <c r="U13" s="24">
         <v>5.3E-3</v>
       </c>
-      <c r="S13" s="24">
+      <c r="V13" s="24">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="T13" s="24">
+      <c r="W13" s="24">
         <v>7.6E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X13" s="24">
+        <v>1.09E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>80</v>
       </c>
@@ -2366,44 +2470,56 @@
       <c r="F14" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="H14" s="32">
+      <c r="G14" s="28">
+        <v>-1.0865</v>
+      </c>
+      <c r="I14" s="32">
         <v>500</v>
       </c>
-      <c r="I14" s="32">
+      <c r="J14" s="32">
         <v>1485</v>
       </c>
-      <c r="J14" s="32">
+      <c r="K14" s="32">
         <v>1486</v>
       </c>
-      <c r="K14" s="32">
+      <c r="L14" s="32">
         <v>1331</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="32">
+        <v>1485</v>
+      </c>
+      <c r="O14" s="24">
         <v>20.59</v>
       </c>
-      <c r="N14" s="24">
+      <c r="P14" s="24">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="O14" s="24">
+      <c r="Q14" s="24">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="P14" s="24">
+      <c r="R14" s="24">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="S14" s="24">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="T14" s="24">
         <v>23.676300000000001</v>
       </c>
-      <c r="R14" s="24">
+      <c r="U14" s="24">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="S14" s="24">
+      <c r="V14" s="24">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="T14" s="24">
+      <c r="W14" s="24">
         <v>5.7000000000000002E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X14" s="24">
+        <v>8.6999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>25</v>
       </c>
@@ -2423,44 +2539,56 @@
       <c r="F15" s="28">
         <v>-0.1547</v>
       </c>
-      <c r="H15" s="32">
+      <c r="G15" s="28">
+        <v>-0.27150000000000002</v>
+      </c>
+      <c r="I15" s="32">
         <v>500</v>
       </c>
-      <c r="I15" s="32">
+      <c r="J15" s="32">
         <v>248</v>
       </c>
-      <c r="J15" s="32">
+      <c r="K15" s="32">
         <v>249</v>
       </c>
-      <c r="K15" s="32">
+      <c r="L15" s="32">
         <v>4016</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="32">
+        <v>248</v>
+      </c>
+      <c r="O15" s="24">
         <v>8.3247999999999998</v>
       </c>
-      <c r="N15" s="24">
+      <c r="P15" s="24">
         <v>3.3E-3</v>
       </c>
-      <c r="O15" s="24">
+      <c r="Q15" s="24">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="P15" s="24">
+      <c r="R15" s="24">
         <v>6.6E-3</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="S15" s="24">
+        <v>7.6E-3</v>
+      </c>
+      <c r="T15" s="24">
         <v>8.548</v>
       </c>
-      <c r="R15" s="24">
+      <c r="U15" s="24">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="S15" s="24">
+      <c r="V15" s="24">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="T15" s="24">
+      <c r="W15" s="24">
         <v>7.3000000000000001E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X15" s="24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>81</v>
       </c>
@@ -2480,44 +2608,56 @@
       <c r="F16" s="28">
         <v>-7.6600000000000001E-2</v>
       </c>
-      <c r="H16" s="32">
+      <c r="G16" s="28">
+        <v>-0.27650000000000002</v>
+      </c>
+      <c r="I16" s="32">
         <v>500</v>
       </c>
-      <c r="I16" s="32">
+      <c r="J16" s="32">
         <v>916</v>
       </c>
-      <c r="J16" s="32">
+      <c r="K16" s="32">
         <v>917</v>
       </c>
-      <c r="K16" s="32">
+      <c r="L16" s="32">
         <v>1530</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="32">
+        <v>916</v>
+      </c>
+      <c r="O16" s="24">
         <v>33.615400000000001</v>
       </c>
-      <c r="N16" s="24">
+      <c r="P16" s="24">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="O16" s="24">
+      <c r="Q16" s="24">
         <v>1.26E-2</v>
       </c>
-      <c r="P16" s="24">
+      <c r="R16" s="24">
         <v>1.06E-2</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="S16" s="24">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="T16" s="24">
         <v>37.056399999999996</v>
       </c>
-      <c r="R16" s="24">
+      <c r="U16" s="24">
         <v>5.3E-3</v>
       </c>
-      <c r="S16" s="24">
+      <c r="V16" s="24">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="T16" s="24">
+      <c r="W16" s="24">
         <v>6.1999999999999998E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X16" s="24">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>82</v>
       </c>
@@ -2537,54 +2677,66 @@
       <c r="F17" s="28">
         <v>-4.0899999999999999E-2</v>
       </c>
-      <c r="H17" s="32">
+      <c r="G17" s="28">
+        <v>-0.2757</v>
+      </c>
+      <c r="I17" s="32">
         <v>500</v>
       </c>
-      <c r="I17" s="32">
+      <c r="J17" s="32">
         <v>3459</v>
       </c>
-      <c r="J17" s="32">
+      <c r="K17" s="32">
         <v>3460</v>
       </c>
-      <c r="K17" s="32">
+      <c r="L17" s="32">
         <v>3259</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="32">
+        <v>3459</v>
+      </c>
+      <c r="O17" s="24">
         <v>19.432700000000001</v>
       </c>
-      <c r="N17" s="24">
+      <c r="P17" s="24">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="O17" s="24">
+      <c r="Q17" s="24">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="P17" s="24">
+      <c r="R17" s="24">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="S17" s="24">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="T17" s="24">
         <v>21.774699999999999</v>
       </c>
-      <c r="R17" s="24">
+      <c r="U17" s="24">
         <v>3.8E-3</v>
       </c>
-      <c r="S17" s="24">
+      <c r="V17" s="24">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="T17" s="24">
+      <c r="W17" s="24">
         <v>4.4000000000000003E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X17" s="24">
+        <v>5.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>79</v>
       </c>
@@ -2604,44 +2756,56 @@
       <c r="F20" s="28">
         <v>-6.5495999999999999</v>
       </c>
-      <c r="H20" s="32">
+      <c r="G20" s="28">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="I20" s="32">
         <v>500</v>
       </c>
-      <c r="I20" s="32">
+      <c r="J20" s="32">
         <v>2487</v>
       </c>
-      <c r="J20" s="32">
+      <c r="K20" s="32">
         <v>2488</v>
       </c>
-      <c r="K20" s="32">
+      <c r="L20" s="32">
         <v>4739</v>
       </c>
-      <c r="M20" s="24">
+      <c r="M20" s="32">
+        <v>2487</v>
+      </c>
+      <c r="O20" s="24">
         <v>11.6623</v>
       </c>
-      <c r="N20" s="24">
+      <c r="P20" s="24">
         <v>1.9E-3</v>
       </c>
-      <c r="O20" s="24">
+      <c r="Q20" s="24">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="P20" s="24">
+      <c r="R20" s="24">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="S20" s="24">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="T20" s="24">
         <v>12.8986</v>
       </c>
-      <c r="R20" s="24">
+      <c r="U20" s="24">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="S20" s="24">
+      <c r="V20" s="24">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="T20" s="24">
+      <c r="W20" s="24">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X20" s="24">
+        <v>5.3E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>80</v>
       </c>
@@ -2661,44 +2825,56 @@
       <c r="F21" s="28">
         <v>-7.1139999999999999</v>
       </c>
-      <c r="H21" s="32">
+      <c r="G21" s="28">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+      <c r="I21" s="32">
         <v>500</v>
       </c>
-      <c r="I21" s="32">
+      <c r="J21" s="32">
         <v>4805</v>
       </c>
-      <c r="J21" s="32">
+      <c r="K21" s="32">
         <v>4806</v>
       </c>
-      <c r="K21" s="32">
+      <c r="L21" s="32">
         <v>4801</v>
       </c>
-      <c r="M21" s="24">
+      <c r="M21" s="32">
+        <v>4805</v>
+      </c>
+      <c r="O21" s="24">
         <v>2.1789999999999998</v>
       </c>
-      <c r="N21" s="24">
+      <c r="P21" s="24">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="O21" s="24">
+      <c r="Q21" s="24">
         <v>1.8E-3</v>
       </c>
-      <c r="P21" s="24">
+      <c r="R21" s="24">
         <v>1.8E-3</v>
       </c>
-      <c r="Q21" s="24">
+      <c r="S21" s="24">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="T21" s="24">
         <v>2.6392000000000002</v>
       </c>
-      <c r="R21" s="24">
+      <c r="U21" s="24">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="S21" s="24">
+      <c r="V21" s="24">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="T21" s="24">
+      <c r="W21" s="24">
         <v>2.3999999999999998E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X21" s="24">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>25</v>
       </c>
@@ -2718,44 +2894,56 @@
       <c r="F22" s="28">
         <v>-2.0003000000000002</v>
       </c>
-      <c r="H22" s="32">
+      <c r="G22" s="28">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="I22" s="32">
         <v>500</v>
       </c>
-      <c r="I22" s="32">
+      <c r="J22" s="32">
         <v>1137</v>
       </c>
-      <c r="J22" s="32">
+      <c r="K22" s="32">
         <v>1138</v>
       </c>
-      <c r="K22" s="32">
+      <c r="L22" s="32">
         <v>4016</v>
       </c>
-      <c r="M22" s="24">
+      <c r="M22" s="32">
+        <v>1137</v>
+      </c>
+      <c r="O22" s="24">
         <v>2.6092</v>
       </c>
-      <c r="N22" s="24">
+      <c r="P22" s="24">
         <v>1.8E-3</v>
       </c>
-      <c r="O22" s="24">
+      <c r="Q22" s="24">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="P22" s="24">
+      <c r="R22" s="24">
         <v>3.3E-3</v>
       </c>
-      <c r="Q22" s="24">
+      <c r="S22" s="24">
+        <v>3.3E-3</v>
+      </c>
+      <c r="T22" s="24">
         <v>3.0699000000000001</v>
       </c>
-      <c r="R22" s="24">
+      <c r="U22" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="S22" s="24">
+      <c r="V22" s="24">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="T22" s="24">
+      <c r="W22" s="24">
         <v>4.3E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X22" s="24">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>81</v>
       </c>
@@ -2775,44 +2963,56 @@
       <c r="F23" s="28">
         <v>-8.6523000000000003</v>
       </c>
-      <c r="H23" s="32">
+      <c r="G23" s="28">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="I23" s="32">
         <v>500</v>
       </c>
-      <c r="I23" s="34">
+      <c r="J23" s="34">
         <v>4838</v>
       </c>
-      <c r="J23" s="34">
+      <c r="K23" s="34">
         <v>470</v>
       </c>
-      <c r="K23" s="34">
+      <c r="L23" s="34">
         <v>4928</v>
       </c>
-      <c r="M23" s="24">
+      <c r="M23" s="34">
+        <v>4838</v>
+      </c>
+      <c r="O23" s="24">
         <v>7.2591999999999999</v>
       </c>
-      <c r="N23" s="24">
+      <c r="P23" s="24">
         <v>1.4E-3</v>
       </c>
-      <c r="O23" s="24">
+      <c r="Q23" s="24">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="P23" s="24">
+      <c r="R23" s="24">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="Q23" s="24">
+      <c r="S23" s="24">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="T23" s="24">
         <v>8.2581000000000007</v>
       </c>
-      <c r="R23" s="24">
+      <c r="U23" s="24">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="S23" s="24">
+      <c r="V23" s="24">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="T23" s="24">
+      <c r="W23" s="24">
         <v>3.5000000000000001E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X23" s="24">
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>82</v>
       </c>
@@ -2832,41 +3032,53 @@
       <c r="F24" s="28">
         <v>-12.7331</v>
       </c>
-      <c r="H24" s="32">
+      <c r="G24" s="28">
+        <v>-6.4000000000000003E-3</v>
+      </c>
+      <c r="I24" s="32">
         <v>500</v>
       </c>
-      <c r="I24" s="32">
+      <c r="J24" s="32">
         <v>4773</v>
       </c>
-      <c r="J24" s="32">
+      <c r="K24" s="32">
         <v>4774</v>
       </c>
-      <c r="K24" s="32">
+      <c r="L24" s="32">
         <v>4733</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M24" s="32">
+        <v>4773</v>
+      </c>
+      <c r="O24" s="24">
         <v>4.6547000000000001</v>
       </c>
-      <c r="N24" s="24">
+      <c r="P24" s="24">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="O24" s="24">
+      <c r="Q24" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P24" s="24">
+      <c r="R24" s="24">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="Q24" s="24">
+      <c r="S24" s="24">
+        <v>2.8E-3</v>
+      </c>
+      <c r="T24" s="24">
         <v>4.8853999999999997</v>
       </c>
-      <c r="R24" s="24">
+      <c r="U24" s="24">
         <v>1.8E-3</v>
       </c>
-      <c r="S24" s="24">
+      <c r="V24" s="24">
         <v>3.3E-3</v>
       </c>
-      <c r="T24" s="24">
+      <c r="W24" s="24">
         <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="X24" s="24">
+        <v>3.3E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2874,12 +3086,12 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2909,36 +3121,36 @@
       <c r="A1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="58" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="67" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="65" t="s">
+      <c r="J1" s="70"/>
+      <c r="K1" s="68" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="20" t="s">
         <v>36</v>
       </c>
@@ -2957,7 +3169,7 @@
       <c r="J2" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="66"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
@@ -2982,25 +3194,25 @@
       <c r="A5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="57"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="25">
-        <f>approx!S6/approx!R6</f>
+        <f>approx!V6/approx!U6</f>
         <v>1.7586206896551726</v>
       </c>
       <c r="C6" s="15">
-        <f>MAX(0, (approx!S6*(approx!J6-1)+approx!Q6)/approx!R6-approx!I6)</f>
+        <f>MAX(0, (approx!V6*(approx!K6-1)+approx!T6)/approx!U6-approx!J6)</f>
         <v>4597.0344827586214</v>
       </c>
       <c r="D6" s="45">
-        <f>approx!I6+C6</f>
+        <f>approx!J6+C6</f>
         <v>7070.0344827586214</v>
       </c>
       <c r="E6" s="21">
@@ -3015,14 +3227,14 @@
         <v>117</v>
       </c>
       <c r="H6" s="15">
-        <f>approx!J6</f>
+        <f>approx!K6</f>
         <v>2474</v>
       </c>
       <c r="I6" s="40" t="s">
         <v>122</v>
       </c>
       <c r="J6" s="25">
-        <f>H6*approx!S6</f>
+        <f>H6*approx!V6</f>
         <v>12.617400000000002</v>
       </c>
       <c r="K6" s="41">
@@ -3035,15 +3247,15 @@
         <v>114</v>
       </c>
       <c r="B7" s="25">
-        <f>approx!O7/approx!N7</f>
+        <f>approx!Q7/approx!P7</f>
         <v>1.3846153846153846</v>
       </c>
       <c r="C7" s="15">
-        <f>MAX(0, (approx!S7*(approx!J7-1)+approx!Q7)/approx!R7-approx!I7)</f>
+        <f>MAX(0, (approx!V7*(approx!K7-1)+approx!T7)/approx!U7-approx!J7)</f>
         <v>4444.666666666667</v>
       </c>
       <c r="D7" s="45">
-        <f>approx!I7+C7</f>
+        <f>approx!J7+C7</f>
         <v>5359.666666666667</v>
       </c>
       <c r="E7" s="47">
@@ -3058,14 +3270,14 @@
         <v>117</v>
       </c>
       <c r="H7" s="15">
-        <f>approx!J7</f>
+        <f>approx!K7</f>
         <v>4489</v>
       </c>
       <c r="I7" s="40" t="s">
         <v>128</v>
       </c>
       <c r="J7" s="25">
-        <f>H7*approx!S7</f>
+        <f>H7*approx!V7</f>
         <v>10.773599999999998</v>
       </c>
       <c r="K7" s="41">
@@ -3078,15 +3290,15 @@
         <v>25</v>
       </c>
       <c r="B8" s="25">
-        <f>approx!S8/approx!R8</f>
+        <f>approx!V8/approx!U8</f>
         <v>1.5555555555555554</v>
       </c>
       <c r="C8" s="15">
-        <f>MAX(0, (approx!S8*(approx!J8-1)+approx!Q8)/approx!R8-approx!I8)</f>
+        <f>MAX(0, (approx!V8*(approx!K8-1)+approx!T8)/approx!U8-approx!J8)</f>
         <v>3154.7777777777765</v>
       </c>
       <c r="D8" s="45">
-        <f>approx!I8+C8</f>
+        <f>approx!J8+C8</f>
         <v>7298.7777777777765</v>
       </c>
       <c r="E8" s="46">
@@ -3100,15 +3312,15 @@
         <v>5153</v>
       </c>
       <c r="H8" s="15">
-        <f>approx!J8</f>
+        <f>approx!K8</f>
         <v>4145</v>
       </c>
       <c r="I8" s="25">
-        <f>approx!R8*G8</f>
+        <f>approx!U8*G8</f>
         <v>13.9131</v>
       </c>
       <c r="J8" s="25">
-        <f>H8*approx!S8</f>
+        <f>H8*approx!V8</f>
         <v>17.408999999999999</v>
       </c>
       <c r="K8" s="48">
@@ -3121,15 +3333,15 @@
         <v>81</v>
       </c>
       <c r="B9" s="25">
-        <f>approx!S9/approx!R9</f>
+        <f>approx!V9/approx!U9</f>
         <v>1.4782608695652173</v>
       </c>
       <c r="C9" s="15">
-        <f>MAX(0, (approx!S9*(approx!J9-1)+approx!Q9)/approx!R9-approx!I9)</f>
+        <f>MAX(0, (approx!V9*(approx!K9-1)+approx!T9)/approx!U9-approx!J9)</f>
         <v>3196.478260869565</v>
       </c>
       <c r="D9" s="45">
-        <f>approx!I9+C9</f>
+        <f>approx!J9+C9</f>
         <v>5058.478260869565</v>
       </c>
       <c r="E9" s="21">
@@ -3144,14 +3356,14 @@
         <v>117</v>
       </c>
       <c r="H9" s="15">
-        <f>approx!J9</f>
+        <f>approx!K9</f>
         <v>1357</v>
       </c>
       <c r="I9" s="40" t="s">
         <v>124</v>
       </c>
       <c r="J9" s="25">
-        <f>H9*approx!S9</f>
+        <f>H9*approx!V9</f>
         <v>4.6137999999999995</v>
       </c>
       <c r="K9" s="41">
@@ -3164,15 +3376,15 @@
         <v>82</v>
       </c>
       <c r="B10" s="25">
-        <f>approx!S10/approx!R10</f>
+        <f>approx!V10/approx!U10</f>
         <v>1.3636363636363635</v>
       </c>
       <c r="C10" s="15">
-        <f>MAX(0, (approx!S10*(approx!J10-1)+approx!Q10)/approx!R10-approx!I10)</f>
+        <f>MAX(0, (approx!V10*(approx!K10-1)+approx!T10)/approx!U10-approx!J10)</f>
         <v>3349.6818181818171</v>
       </c>
       <c r="D10" s="45">
-        <f>approx!I10+C10</f>
+        <f>approx!J10+C10</f>
         <v>7205.6818181818171</v>
       </c>
       <c r="E10" s="47">
@@ -3187,14 +3399,14 @@
         <v>117</v>
       </c>
       <c r="H10" s="15">
-        <f>approx!J10</f>
+        <f>approx!K10</f>
         <v>3857</v>
       </c>
       <c r="I10" s="40" t="s">
         <v>123</v>
       </c>
       <c r="J10" s="25">
-        <f>H10*approx!S10</f>
+        <f>H10*approx!V10</f>
         <v>11.571</v>
       </c>
       <c r="K10" s="41">
@@ -3210,25 +3422,25 @@
         <v>91</v>
       </c>
       <c r="D12" s="45"/>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="57"/>
+      <c r="F12" s="60"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="25">
-        <f>approx!S13/approx!R13</f>
+        <f>approx!V13/approx!U13</f>
         <v>2.358490566037736</v>
       </c>
       <c r="C13" s="15">
-        <f>MAX(0, (approx!S13*(approx!J13-1)+approx!Q13)/approx!R13-approx!I13)</f>
+        <f>MAX(0, (approx!V13*(approx!K13-1)+approx!T13)/approx!U13-approx!J13)</f>
         <v>10270.396226415094</v>
       </c>
       <c r="D13" s="45">
-        <f>approx!I13+C13</f>
+        <f>approx!J13+C13</f>
         <v>12137.396226415094</v>
       </c>
       <c r="E13" s="21">
@@ -3243,14 +3455,14 @@
         <v>117</v>
       </c>
       <c r="H13" s="15">
-        <f>approx!J13</f>
+        <f>approx!K13</f>
         <v>1868</v>
       </c>
       <c r="I13" s="40" t="s">
         <v>125</v>
       </c>
       <c r="J13" s="25">
-        <f>H13*approx!S13</f>
+        <f>H13*approx!V13</f>
         <v>23.35</v>
       </c>
       <c r="K13" s="41">
@@ -3263,15 +3475,15 @@
         <v>80</v>
       </c>
       <c r="B14" s="25">
-        <f>approx!S14/approx!R14</f>
+        <f>approx!V14/approx!U14</f>
         <v>1.8135593220338984</v>
       </c>
       <c r="C14" s="15">
-        <f>MAX(0, (approx!S14*(approx!J14-1)+approx!Q14)/approx!R14-approx!I14)</f>
+        <f>MAX(0, (approx!V14*(approx!K14-1)+approx!T14)/approx!U14-approx!J14)</f>
         <v>5221.0677966101703</v>
       </c>
       <c r="D14" s="45">
-        <f>approx!I14+C14</f>
+        <f>approx!J14+C14</f>
         <v>6706.0677966101703</v>
       </c>
       <c r="E14" s="21">
@@ -3286,14 +3498,14 @@
         <v>117</v>
       </c>
       <c r="H14" s="15">
-        <f>approx!J14</f>
+        <f>approx!K14</f>
         <v>1486</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>126</v>
       </c>
       <c r="J14" s="25">
-        <f>H14*approx!S14</f>
+        <f>H14*approx!V14</f>
         <v>15.9002</v>
       </c>
       <c r="K14" s="41">
@@ -3306,15 +3518,15 @@
         <v>25</v>
       </c>
       <c r="B15" s="25">
-        <f>approx!S15/approx!R15</f>
+        <f>approx!V15/approx!U15</f>
         <v>1.4666666666666666</v>
       </c>
       <c r="C15" s="15">
-        <f>MAX(0, (approx!S15*(approx!J15-1)+approx!Q15)/approx!R15-approx!I15)</f>
+        <f>MAX(0, (approx!V15*(approx!K15-1)+approx!T15)/approx!U15-approx!J15)</f>
         <v>1255.4666666666667</v>
       </c>
       <c r="D15" s="49">
-        <f>approx!I15+C15</f>
+        <f>approx!J15+C15</f>
         <v>1503.4666666666667</v>
       </c>
       <c r="E15" s="21">
@@ -3329,14 +3541,14 @@
         <v>117</v>
       </c>
       <c r="H15" s="15">
-        <f>approx!J15</f>
+        <f>approx!K15</f>
         <v>249</v>
       </c>
       <c r="I15" s="40" t="s">
         <v>127</v>
       </c>
       <c r="J15" s="25">
-        <f>H15*approx!S15</f>
+        <f>H15*approx!V15</f>
         <v>2.7389999999999999</v>
       </c>
       <c r="K15" s="41">
@@ -3349,15 +3561,15 @@
         <v>81</v>
       </c>
       <c r="B16" s="25">
-        <f>approx!S16/approx!R16</f>
+        <f>approx!V16/approx!U16</f>
         <v>1.9811320754716981</v>
       </c>
       <c r="C16" s="15">
-        <f>MAX(0, (approx!S16*(approx!J16-1)+approx!Q16)/approx!R16-approx!I16)</f>
+        <f>MAX(0, (approx!V16*(approx!K16-1)+approx!T16)/approx!U16-approx!J16)</f>
         <v>7890.4905660377353</v>
       </c>
       <c r="D16" s="45">
-        <f>approx!I16+C16</f>
+        <f>approx!J16+C16</f>
         <v>8806.4905660377353</v>
       </c>
       <c r="E16" s="21">
@@ -3372,14 +3584,14 @@
         <v>117</v>
       </c>
       <c r="H16" s="15">
-        <f>approx!J16</f>
+        <f>approx!K16</f>
         <v>917</v>
       </c>
       <c r="I16" s="40" t="s">
         <v>125</v>
       </c>
       <c r="J16" s="25">
-        <f>H16*approx!S16</f>
+        <f>H16*approx!V16</f>
         <v>9.6285000000000007</v>
       </c>
       <c r="K16" s="41">
@@ -3392,15 +3604,15 @@
         <v>82</v>
       </c>
       <c r="B17" s="25">
-        <f>approx!S17/approx!R17</f>
+        <f>approx!V17/approx!U17</f>
         <v>2.0526315789473681</v>
       </c>
       <c r="C17" s="15">
-        <f>MAX(0, (approx!S17*(approx!J17-1)+approx!Q17)/approx!R17-approx!I17)</f>
+        <f>MAX(0, (approx!V17*(approx!K17-1)+approx!T17)/approx!U17-approx!J17)</f>
         <v>9371.2368421052633</v>
       </c>
       <c r="D17" s="45">
-        <f>approx!I17+C17</f>
+        <f>approx!J17+C17</f>
         <v>12830.236842105263</v>
       </c>
       <c r="E17" s="21">
@@ -3415,14 +3627,14 @@
         <v>117</v>
       </c>
       <c r="H17" s="15">
-        <f>approx!J17</f>
+        <f>approx!K17</f>
         <v>3460</v>
       </c>
       <c r="I17" s="40" t="s">
         <v>118</v>
       </c>
       <c r="J17" s="25">
-        <f>H17*approx!S17</f>
+        <f>H17*approx!V17</f>
         <v>26.988</v>
       </c>
       <c r="K17" s="41">
@@ -3438,25 +3650,25 @@
         <v>92</v>
       </c>
       <c r="D19" s="45"/>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="57"/>
+      <c r="F19" s="60"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>79</v>
       </c>
       <c r="B20" s="25">
-        <f>approx!S20/approx!R20</f>
+        <f>approx!V20/approx!U20</f>
         <v>2</v>
       </c>
       <c r="C20" s="15">
-        <f>MAX(0, (approx!S20*(approx!J20-1)+approx!Q20)/approx!R20-approx!I20)</f>
+        <f>MAX(0, (approx!V20*(approx!K20-1)+approx!T20)/approx!U20-approx!J20)</f>
         <v>6172.3142857142866</v>
       </c>
       <c r="D20" s="45">
-        <f>approx!I20+C20</f>
+        <f>approx!J20+C20</f>
         <v>8659.3142857142866</v>
       </c>
       <c r="E20" s="21">
@@ -3471,14 +3683,14 @@
         <v>117</v>
       </c>
       <c r="H20" s="15">
-        <f>approx!J20</f>
+        <f>approx!K20</f>
         <v>2488</v>
       </c>
       <c r="I20" s="40" t="s">
         <v>130</v>
       </c>
       <c r="J20" s="25">
-        <f>H20*approx!S20</f>
+        <f>H20*approx!V20</f>
         <v>17.416</v>
       </c>
       <c r="K20" s="41">
@@ -3491,15 +3703,15 @@
         <v>80</v>
       </c>
       <c r="B21" s="25">
-        <f>approx!S21/approx!R21</f>
+        <f>approx!V21/approx!U21</f>
         <v>1.1428571428571428</v>
       </c>
       <c r="C21" s="15">
-        <f>MAX(0, (approx!S21*(approx!J21-1)+approx!Q21)/approx!R21-approx!I21)</f>
+        <f>MAX(0, (approx!V21*(approx!K21-1)+approx!T21)/approx!U21-approx!J21)</f>
         <v>1943.1904761904761</v>
       </c>
       <c r="D21" s="45">
-        <f>approx!I21+C21</f>
+        <f>approx!J21+C21</f>
         <v>6748.1904761904761</v>
       </c>
       <c r="E21" s="21">
@@ -3514,14 +3726,14 @@
         <v>117</v>
       </c>
       <c r="H21" s="15">
-        <f>approx!J21</f>
+        <f>approx!K21</f>
         <v>4806</v>
       </c>
       <c r="I21" s="40" t="s">
         <v>119</v>
       </c>
       <c r="J21" s="25">
-        <f>H21*approx!S21</f>
+        <f>H21*approx!V21</f>
         <v>11.5344</v>
       </c>
       <c r="K21" s="41">
@@ -3534,15 +3746,15 @@
         <v>25</v>
       </c>
       <c r="B22" s="25">
-        <f>approx!S22/approx!R22</f>
+        <f>approx!V22/approx!U22</f>
         <v>1.5666666666666667</v>
       </c>
       <c r="C22" s="15">
-        <f>MAX(0, (approx!S22*(approx!J22-1)+approx!Q22)/approx!R22-approx!I22)</f>
+        <f>MAX(0, (approx!V22*(approx!K22-1)+approx!T22)/approx!U22-approx!J22)</f>
         <v>1667.6</v>
       </c>
       <c r="D22" s="49">
-        <f>approx!I22+C22</f>
+        <f>approx!J22+C22</f>
         <v>2804.6</v>
       </c>
       <c r="E22" s="21">
@@ -3557,14 +3769,14 @@
         <v>117</v>
       </c>
       <c r="H22" s="15">
-        <f>approx!J22</f>
+        <f>approx!K22</f>
         <v>1138</v>
       </c>
       <c r="I22" s="40" t="s">
         <v>129</v>
       </c>
       <c r="J22" s="25">
-        <f>H22*approx!S22</f>
+        <f>H22*approx!V22</f>
         <v>5.3486000000000002</v>
       </c>
       <c r="K22" s="41">
@@ -3577,15 +3789,15 @@
         <v>81</v>
       </c>
       <c r="B23" s="25">
-        <f>approx!S23/approx!R23</f>
+        <f>approx!V23/approx!U23</f>
         <v>1.75</v>
       </c>
       <c r="C23" s="15">
-        <f>MAX(0, (approx!S23*(approx!J23-1)+approx!Q23)/approx!R23-approx!I23)</f>
+        <f>MAX(0, (approx!V23*(approx!K23-1)+approx!T23)/approx!U23-approx!J23)</f>
         <v>0</v>
       </c>
       <c r="D23" s="49">
-        <f>approx!I23+C23</f>
+        <f>approx!J23+C23</f>
         <v>4838</v>
       </c>
       <c r="E23" s="21">
@@ -3600,14 +3812,14 @@
         <v>117</v>
       </c>
       <c r="H23" s="15">
-        <f>approx!J23</f>
+        <f>approx!K23</f>
         <v>470</v>
       </c>
       <c r="I23" s="40" t="s">
         <v>128</v>
       </c>
       <c r="J23" s="25">
-        <f>H23*approx!S23</f>
+        <f>H23*approx!V23</f>
         <v>1.974</v>
       </c>
       <c r="K23" s="41">
@@ -3620,15 +3832,15 @@
         <v>82</v>
       </c>
       <c r="B24" s="25">
-        <f>approx!S24/approx!R24</f>
+        <f>approx!V24/approx!U24</f>
         <v>1.8333333333333335</v>
       </c>
       <c r="C24" s="15">
-        <f>MAX(0, (approx!S24*(approx!J24-1)+approx!Q24)/approx!R24-approx!I24)</f>
+        <f>MAX(0, (approx!V24*(approx!K24-1)+approx!T24)/approx!U24-approx!J24)</f>
         <v>6691.6111111111113</v>
       </c>
       <c r="D24" s="45">
-        <f>approx!I24+C24</f>
+        <f>approx!J24+C24</f>
         <v>11464.611111111111</v>
       </c>
       <c r="E24" s="21">
@@ -3643,14 +3855,14 @@
         <v>117</v>
       </c>
       <c r="H24" s="15">
-        <f>approx!J24</f>
+        <f>approx!K24</f>
         <v>4774</v>
       </c>
       <c r="I24" s="40" t="s">
         <v>120</v>
       </c>
       <c r="J24" s="25">
-        <f>H24*approx!S24</f>
+        <f>H24*approx!V24</f>
         <v>15.754199999999999</v>
       </c>
       <c r="K24" s="41">
@@ -3670,16 +3882,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3719,14 +3931,14 @@
       <c r="A1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="58"/>
+      <c r="E1" s="61"/>
       <c r="J1" t="s">
         <v>113</v>
       </c>

--- a/docs/cs534L-SAGmf.xlsx
+++ b/docs/cs534L-SAGmf.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="12720" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="12720" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" r:id="rId1"/>
     <sheet name="epinions" sheetId="5" r:id="rId2"/>
     <sheet name="parallel" sheetId="3" r:id="rId3"/>
     <sheet name="approx" sheetId="2" r:id="rId4"/>
-    <sheet name="followUp" sheetId="6" r:id="rId5"/>
-    <sheet name="full" sheetId="7" r:id="rId6"/>
-    <sheet name="memory" sheetId="4" r:id="rId7"/>
+    <sheet name="lineSearch" sheetId="8" r:id="rId5"/>
+    <sheet name="followUp" sheetId="6" r:id="rId6"/>
+    <sheet name="full" sheetId="7" r:id="rId7"/>
+    <sheet name="memory" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="142">
   <si>
     <t>Dataset</t>
   </si>
@@ -416,9 +417,6 @@
   </si>
   <si>
     <t>generic</t>
-  </si>
-  <si>
-    <t>SAG minus SG</t>
   </si>
   <si>
     <t>ahead</t>
@@ -1522,10 +1520,10 @@
         <v>54</v>
       </c>
       <c r="C4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" t="s">
         <v>137</v>
-      </c>
-      <c r="D4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1766,33 +1764,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE24"/>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" style="11" customWidth="1"/>
     <col min="2" max="4" width="10.5546875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="28" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="11.21875" style="28" customWidth="1"/>
-    <col min="8" max="8" width="2.88671875" style="28" customWidth="1"/>
-    <col min="9" max="10" width="7.5546875" style="32" customWidth="1"/>
-    <col min="11" max="13" width="8.77734375" style="32" customWidth="1"/>
-    <col min="14" max="14" width="3" style="31" customWidth="1"/>
-    <col min="15" max="20" width="8.109375" style="24" customWidth="1"/>
-    <col min="21" max="21" width="6.6640625" style="24" customWidth="1"/>
-    <col min="22" max="24" width="8.33203125" style="24" customWidth="1"/>
-    <col min="25" max="25" width="2.109375" style="24" customWidth="1"/>
-    <col min="26" max="27" width="7" style="11" customWidth="1"/>
-    <col min="28" max="28" width="8" style="11" customWidth="1"/>
-    <col min="29" max="30" width="7" style="11" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" style="11" customWidth="1"/>
+    <col min="5" max="6" width="11.21875" style="28" customWidth="1"/>
+    <col min="7" max="7" width="2.88671875" style="28" customWidth="1"/>
+    <col min="8" max="9" width="7.5546875" style="32" customWidth="1"/>
+    <col min="10" max="12" width="8.77734375" style="32" customWidth="1"/>
+    <col min="13" max="13" width="3" style="31" customWidth="1"/>
+    <col min="14" max="19" width="8.109375" style="24" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" style="24" customWidth="1"/>
+    <col min="21" max="23" width="8.33203125" style="24" customWidth="1"/>
+    <col min="24" max="24" width="2.109375" style="24" customWidth="1"/>
+    <col min="25" max="26" width="7" style="11" customWidth="1"/>
+    <col min="27" max="27" width="8" style="11" customWidth="1"/>
+    <col min="28" max="29" width="7" style="11" customWidth="1"/>
+    <col min="30" max="30" width="7.44140625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>88</v>
       </c>
@@ -1801,45 +1798,44 @@
       </c>
       <c r="C1" s="62"/>
       <c r="D1" s="62"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="65" t="s">
+      <c r="E1" s="53"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="65" t="s">
         <v>98</v>
       </c>
+      <c r="I1" s="65"/>
       <c r="J1" s="65"/>
       <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="64" t="s">
+      <c r="L1" s="58"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="64" t="s">
         <v>83</v>
       </c>
+      <c r="O1" s="64"/>
       <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="64" t="s">
+      <c r="Q1" s="55"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="64" t="s">
         <v>103</v>
       </c>
+      <c r="T1" s="64"/>
       <c r="U1" s="64"/>
       <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="63" t="s">
+      <c r="W1" s="57"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="63" t="s">
         <v>84</v>
       </c>
+      <c r="Z1" s="63"/>
       <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63" t="s">
+      <c r="AB1" s="63" t="s">
         <v>104</v>
       </c>
+      <c r="AC1" s="63"/>
       <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-    </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -1850,85 +1846,82 @@
         <v>36</v>
       </c>
       <c r="D2" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="33" t="s">
+        <v>102</v>
+      </c>
       <c r="I2" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="30"/>
+      <c r="N2" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="O2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="P2" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q2" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="L2" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="M2" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="27" t="s">
+      <c r="S2" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="T2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="U2" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="S2" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="T2" s="27" t="s">
+      <c r="AB2" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="AC2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" s="44" t="s">
+      <c r="AD2" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="AC2" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" s="43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>106</v>
       </c>
@@ -1938,19 +1931,19 @@
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="H3" s="32">
+        <v>500</v>
+      </c>
       <c r="I3" s="32">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="J3" s="32">
         <v>5000</v>
       </c>
-      <c r="K3" s="32">
-        <v>5000</v>
-      </c>
+      <c r="K3" s="32"/>
       <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="32"/>
       <c r="O3" s="32"/>
       <c r="P3" s="32"/>
       <c r="Q3" s="32"/>
@@ -1958,16 +1951,15 @@
       <c r="S3" s="32"/>
       <c r="T3" s="32"/>
       <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
+      <c r="X3" s="32"/>
       <c r="Y3" s="32"/>
       <c r="Z3" s="32"/>
       <c r="AA3" s="32"/>
       <c r="AB3" s="32"/>
       <c r="AC3" s="32"/>
       <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>99</v>
       </c>
@@ -1976,12 +1968,11 @@
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="27"/>
-    </row>
-    <row r="6" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="53"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>79</v>
       </c>
@@ -1995,71 +1986,67 @@
         <v>0.29260000000000003</v>
       </c>
       <c r="E6" s="28">
-        <f>D6-C6</f>
-        <v>-1.8499999999999961E-2</v>
+        <v>1.2579</v>
       </c>
       <c r="F6" s="28">
-        <v>1.2579</v>
-      </c>
-      <c r="G6" s="28">
         <v>0.31109999999999999</v>
       </c>
-      <c r="H6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="32">
+        <v>500</v>
+      </c>
       <c r="I6" s="32">
-        <v>500</v>
+        <v>2473</v>
       </c>
       <c r="J6" s="32">
+        <v>2474</v>
+      </c>
+      <c r="K6" s="32">
+        <v>587</v>
+      </c>
+      <c r="L6" s="32">
         <v>2473</v>
       </c>
-      <c r="K6" s="32">
-        <v>2474</v>
-      </c>
-      <c r="L6" s="32">
-        <v>587</v>
-      </c>
-      <c r="M6" s="32">
-        <v>2473</v>
-      </c>
-      <c r="N6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="24">
+        <v>7.2293000000000003</v>
+      </c>
       <c r="O6" s="24">
-        <v>7.2293000000000003</v>
+        <v>1.8E-3</v>
       </c>
       <c r="P6" s="24">
-        <v>1.8E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="Q6" s="24">
-        <v>4.4000000000000003E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="R6" s="24">
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="S6" s="24">
-        <v>4.4999999999999997E-3</v>
+        <v>7.8907999999999996</v>
       </c>
       <c r="T6" s="24">
-        <v>7.8907999999999996</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="U6" s="24">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="V6" s="24">
         <v>5.1000000000000004E-3</v>
       </c>
+      <c r="V6" s="25">
+        <v>5.5999999999999999E-3</v>
+      </c>
       <c r="W6" s="25">
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="X6" s="25">
         <v>6.6E-3</v>
       </c>
+      <c r="X6" s="24"/>
       <c r="Y6" s="24"/>
       <c r="Z6" s="24"/>
       <c r="AA6" s="24"/>
       <c r="AB6" s="24"/>
       <c r="AC6" s="24"/>
       <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-    </row>
-    <row r="7" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>80</v>
       </c>
@@ -2073,71 +2060,67 @@
         <v>0.18809999999999999</v>
       </c>
       <c r="E7" s="28">
-        <f t="shared" ref="E7:E24" si="0">D7-C7</f>
-        <v>-0.12440000000000001</v>
+        <v>1.4046000000000001</v>
       </c>
       <c r="F7" s="28">
-        <v>1.4046000000000001</v>
-      </c>
-      <c r="G7" s="28">
         <v>0.3125</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="32">
+      <c r="G7" s="28"/>
+      <c r="H7" s="32">
         <v>500</v>
       </c>
+      <c r="I7" s="34">
+        <v>915</v>
+      </c>
       <c r="J7" s="34">
+        <v>4489</v>
+      </c>
+      <c r="K7" s="34">
+        <v>121</v>
+      </c>
+      <c r="L7" s="34">
         <v>915</v>
       </c>
-      <c r="K7" s="34">
-        <v>4489</v>
-      </c>
-      <c r="L7" s="34">
-        <v>121</v>
-      </c>
-      <c r="M7" s="34">
-        <v>915</v>
-      </c>
-      <c r="N7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="24">
+        <v>1.8077000000000001</v>
+      </c>
       <c r="O7" s="24">
-        <v>1.8077000000000001</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="P7" s="24">
-        <v>1.2999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="Q7" s="24">
-        <v>1.8E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="R7" s="24">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="S7" s="24">
-        <v>1.9E-3</v>
+        <v>2.0920000000000001</v>
       </c>
       <c r="T7" s="24">
-        <v>2.0920000000000001</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="U7" s="24">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="V7" s="24">
-        <v>2.3999999999999998E-3</v>
+      <c r="V7" s="25">
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="W7" s="25">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="X7" s="25">
         <v>5.7000000000000002E-3</v>
       </c>
+      <c r="X7" s="24"/>
       <c r="Y7" s="24"/>
       <c r="Z7" s="24"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="24"/>
       <c r="AC7" s="24"/>
       <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-    </row>
-    <row r="8" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>25</v>
       </c>
@@ -2151,71 +2134,67 @@
         <v>0.29899999999999999</v>
       </c>
       <c r="E8" s="28">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000009E-3</v>
+        <v>1.0246</v>
       </c>
       <c r="F8" s="28">
-        <v>1.0246</v>
-      </c>
-      <c r="G8" s="28">
         <v>0.2979</v>
       </c>
-      <c r="H8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="32">
+        <v>500</v>
+      </c>
       <c r="I8" s="32">
-        <v>500</v>
+        <v>4144</v>
       </c>
       <c r="J8" s="32">
+        <v>4145</v>
+      </c>
+      <c r="K8" s="32">
+        <v>1887</v>
+      </c>
+      <c r="L8" s="32">
         <v>4144</v>
       </c>
-      <c r="K8" s="32">
-        <v>4145</v>
-      </c>
-      <c r="L8" s="32">
-        <v>1887</v>
-      </c>
-      <c r="M8" s="32">
-        <v>4144</v>
-      </c>
-      <c r="N8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="24">
+        <v>2.0480999999999998</v>
+      </c>
       <c r="O8" s="24">
-        <v>2.0480999999999998</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="P8" s="24">
-        <v>1.6999999999999999E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="Q8" s="24">
-        <v>3.2000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="R8" s="24">
-        <v>3.3999999999999998E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="S8" s="24">
-        <v>3.3E-3</v>
+        <v>2.3018999999999998</v>
       </c>
       <c r="T8" s="24">
-        <v>2.3018999999999998</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="U8" s="24">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="V8" s="24">
         <v>4.1999999999999997E-3</v>
       </c>
+      <c r="V8" s="25">
+        <v>5.1999999999999998E-3</v>
+      </c>
       <c r="W8" s="25">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="X8" s="25">
         <v>8.0999999999999996E-3</v>
       </c>
+      <c r="X8" s="24"/>
       <c r="Y8" s="24"/>
       <c r="Z8" s="24"/>
       <c r="AA8" s="24"/>
       <c r="AB8" s="24"/>
       <c r="AC8" s="24"/>
       <c r="AD8" s="24"/>
-      <c r="AE8" s="24"/>
-    </row>
-    <row r="9" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>81</v>
       </c>
@@ -2229,71 +2208,67 @@
         <v>0.27789999999999998</v>
       </c>
       <c r="E9" s="28">
-        <f t="shared" si="0"/>
-        <v>-3.8000000000000034E-2</v>
+        <v>43.808500000000002</v>
       </c>
       <c r="F9" s="28">
-        <v>43.808500000000002</v>
-      </c>
-      <c r="G9" s="28">
         <v>0.31590000000000001</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="32">
+      <c r="G9" s="28"/>
+      <c r="H9" s="32">
         <v>500</v>
       </c>
+      <c r="I9" s="34">
+        <v>1862</v>
+      </c>
       <c r="J9" s="34">
+        <v>1357</v>
+      </c>
+      <c r="K9" s="34">
+        <v>954</v>
+      </c>
+      <c r="L9" s="34">
         <v>1862</v>
       </c>
-      <c r="K9" s="34">
-        <v>1357</v>
-      </c>
-      <c r="L9" s="34">
-        <v>954</v>
-      </c>
-      <c r="M9" s="34">
-        <v>1862</v>
-      </c>
-      <c r="N9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="24">
+        <v>6.2801</v>
+      </c>
       <c r="O9" s="24">
-        <v>6.2801</v>
+        <v>1.4E-3</v>
       </c>
       <c r="P9" s="24">
-        <v>1.4E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="Q9" s="24">
-        <v>3.5000000000000001E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="R9" s="24">
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="S9" s="24">
-        <v>3.5999999999999999E-3</v>
+        <v>7.0240999999999998</v>
       </c>
       <c r="T9" s="24">
-        <v>7.0240999999999998</v>
+        <v>2.3E-3</v>
       </c>
       <c r="U9" s="24">
-        <v>2.3E-3</v>
-      </c>
-      <c r="V9" s="24">
         <v>3.3999999999999998E-3</v>
       </c>
+      <c r="V9" s="25">
+        <v>4.7000000000000002E-3</v>
+      </c>
       <c r="W9" s="25">
-        <v>4.7000000000000002E-3</v>
-      </c>
-      <c r="X9" s="25">
         <v>5.7999999999999996E-3</v>
       </c>
+      <c r="X9" s="24"/>
       <c r="Y9" s="24"/>
       <c r="Z9" s="24"/>
       <c r="AA9" s="24"/>
       <c r="AB9" s="24"/>
       <c r="AC9" s="24"/>
       <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-    </row>
-    <row r="10" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>82</v>
       </c>
@@ -2307,37 +2282,36 @@
         <v>0.26800000000000002</v>
       </c>
       <c r="E10" s="28">
-        <f t="shared" si="0"/>
-        <v>-3.2599999999999962E-2</v>
+        <v>0.84350000000000003</v>
       </c>
       <c r="F10" s="28">
-        <v>0.84350000000000003</v>
-      </c>
-      <c r="G10" s="28">
         <v>0.30059999999999998</v>
       </c>
-      <c r="H10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="32">
+        <v>500</v>
+      </c>
       <c r="I10" s="32">
-        <v>500</v>
+        <v>3856</v>
       </c>
       <c r="J10" s="32">
+        <v>3857</v>
+      </c>
+      <c r="K10" s="32">
+        <v>270</v>
+      </c>
+      <c r="L10" s="32">
         <v>3856</v>
       </c>
-      <c r="K10" s="32">
-        <v>3857</v>
-      </c>
-      <c r="L10" s="32">
-        <v>270</v>
-      </c>
-      <c r="M10" s="32">
-        <v>3856</v>
-      </c>
-      <c r="N10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="24">
+        <v>4.0510999999999999</v>
+      </c>
       <c r="O10" s="24">
-        <v>4.0510999999999999</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="P10" s="24">
-        <v>1.1999999999999999E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="Q10" s="24">
         <v>2.8E-3</v>
@@ -2346,32 +2320,29 @@
         <v>2.8E-3</v>
       </c>
       <c r="S10" s="24">
-        <v>2.8E-3</v>
+        <v>4.2845000000000004</v>
       </c>
       <c r="T10" s="24">
-        <v>4.2845000000000004</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="U10" s="24">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="V10" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="V10" s="25">
+        <v>3.0999999999999999E-3</v>
+      </c>
       <c r="W10" s="25">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="X10" s="25">
         <v>3.8E-3</v>
       </c>
+      <c r="X10" s="24"/>
       <c r="Y10" s="24"/>
       <c r="Z10" s="24"/>
       <c r="AA10" s="24"/>
       <c r="AB10" s="24"/>
       <c r="AC10" s="24"/>
       <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
@@ -2381,7 +2352,7 @@
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>79</v>
       </c>
@@ -2395,62 +2366,58 @@
         <v>-0.2727</v>
       </c>
       <c r="E13" s="28">
-        <f t="shared" si="0"/>
-        <v>8.2999999999999741E-4</v>
+        <v>-6.7100000000000007E-2</v>
       </c>
       <c r="F13" s="28">
-        <v>-6.7100000000000007E-2</v>
-      </c>
-      <c r="G13" s="28">
         <v>-0.27350000000000002</v>
       </c>
+      <c r="H13" s="32">
+        <v>500</v>
+      </c>
       <c r="I13" s="32">
-        <v>500</v>
+        <v>1867</v>
       </c>
       <c r="J13" s="32">
+        <v>1868</v>
+      </c>
+      <c r="K13" s="32">
+        <v>4228</v>
+      </c>
+      <c r="L13" s="32">
         <v>1867</v>
       </c>
-      <c r="K13" s="32">
-        <v>1868</v>
-      </c>
-      <c r="L13" s="32">
-        <v>4228</v>
-      </c>
-      <c r="M13" s="32">
-        <v>1867</v>
+      <c r="N13" s="24">
+        <v>38.302199999999999</v>
       </c>
       <c r="O13" s="24">
-        <v>38.302199999999999</v>
+        <v>3.3E-3</v>
       </c>
       <c r="P13" s="24">
-        <v>3.3E-3</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="Q13" s="24">
-        <v>1.5800000000000002E-2</v>
+        <v>1.35E-2</v>
       </c>
       <c r="R13" s="24">
-        <v>1.35E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="S13" s="24">
-        <v>1.54E-2</v>
+        <v>40.990699999999997</v>
       </c>
       <c r="T13" s="24">
-        <v>40.990699999999997</v>
+        <v>5.3E-3</v>
       </c>
       <c r="U13" s="24">
-        <v>5.3E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="V13" s="24">
-        <v>1.2500000000000001E-2</v>
+        <v>7.6E-3</v>
       </c>
       <c r="W13" s="24">
-        <v>7.6E-3</v>
-      </c>
-      <c r="X13" s="24">
         <v>1.09E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>80</v>
       </c>
@@ -2463,63 +2430,59 @@
       <c r="D14" s="28">
         <v>-1.0665</v>
       </c>
-      <c r="E14" s="28">
-        <f t="shared" si="0"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="28">
+      <c r="E14" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="28">
         <v>-1.0865</v>
       </c>
+      <c r="H14" s="32">
+        <v>500</v>
+      </c>
       <c r="I14" s="32">
-        <v>500</v>
+        <v>1485</v>
       </c>
       <c r="J14" s="32">
+        <v>1486</v>
+      </c>
+      <c r="K14" s="32">
+        <v>1331</v>
+      </c>
+      <c r="L14" s="32">
         <v>1485</v>
       </c>
-      <c r="K14" s="32">
-        <v>1486</v>
-      </c>
-      <c r="L14" s="32">
-        <v>1331</v>
-      </c>
-      <c r="M14" s="32">
-        <v>1485</v>
+      <c r="N14" s="24">
+        <v>20.59</v>
       </c>
       <c r="O14" s="24">
-        <v>20.59</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="P14" s="24">
-        <v>2.5000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="Q14" s="24">
-        <v>8.9999999999999993E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="R14" s="24">
-        <v>7.3000000000000001E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="S14" s="24">
-        <v>8.8000000000000005E-3</v>
+        <v>23.676300000000001</v>
       </c>
       <c r="T14" s="24">
-        <v>23.676300000000001</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="U14" s="24">
-        <v>5.8999999999999999E-3</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="V14" s="24">
-        <v>1.0699999999999999E-2</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="W14" s="24">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="X14" s="24">
         <v>8.6999999999999994E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>25</v>
       </c>
@@ -2533,62 +2496,58 @@
         <v>-0.2712</v>
       </c>
       <c r="E15" s="28">
-        <f t="shared" si="0"/>
-        <v>3.0000000000002247E-4</v>
+        <v>-0.1547</v>
       </c>
       <c r="F15" s="28">
-        <v>-0.1547</v>
-      </c>
-      <c r="G15" s="28">
         <v>-0.27150000000000002</v>
       </c>
+      <c r="H15" s="32">
+        <v>500</v>
+      </c>
       <c r="I15" s="32">
-        <v>500</v>
+        <v>248</v>
       </c>
       <c r="J15" s="32">
+        <v>249</v>
+      </c>
+      <c r="K15" s="32">
+        <v>4016</v>
+      </c>
+      <c r="L15" s="32">
         <v>248</v>
       </c>
-      <c r="K15" s="32">
-        <v>249</v>
-      </c>
-      <c r="L15" s="32">
-        <v>4016</v>
-      </c>
-      <c r="M15" s="32">
-        <v>248</v>
+      <c r="N15" s="24">
+        <v>8.3247999999999998</v>
       </c>
       <c r="O15" s="24">
-        <v>8.3247999999999998</v>
+        <v>3.3E-3</v>
       </c>
       <c r="P15" s="24">
-        <v>3.3E-3</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="Q15" s="24">
-        <v>7.7000000000000002E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="R15" s="24">
-        <v>6.6E-3</v>
+        <v>7.6E-3</v>
       </c>
       <c r="S15" s="24">
-        <v>7.6E-3</v>
+        <v>8.548</v>
       </c>
       <c r="T15" s="24">
-        <v>8.548</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="U15" s="24">
-        <v>7.4999999999999997E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="V15" s="24">
-        <v>1.0999999999999999E-2</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="W15" s="24">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="X15" s="24">
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>81</v>
       </c>
@@ -2602,62 +2561,58 @@
         <v>-0.27460000000000001</v>
       </c>
       <c r="E16" s="28">
-        <f t="shared" si="0"/>
-        <v>1.9000000000000128E-3</v>
+        <v>-7.6600000000000001E-2</v>
       </c>
       <c r="F16" s="28">
-        <v>-7.6600000000000001E-2</v>
-      </c>
-      <c r="G16" s="28">
         <v>-0.27650000000000002</v>
       </c>
+      <c r="H16" s="32">
+        <v>500</v>
+      </c>
       <c r="I16" s="32">
-        <v>500</v>
+        <v>916</v>
       </c>
       <c r="J16" s="32">
+        <v>917</v>
+      </c>
+      <c r="K16" s="32">
+        <v>1530</v>
+      </c>
+      <c r="L16" s="32">
         <v>916</v>
       </c>
-      <c r="K16" s="32">
-        <v>917</v>
-      </c>
-      <c r="L16" s="32">
-        <v>1530</v>
-      </c>
-      <c r="M16" s="32">
-        <v>916</v>
+      <c r="N16" s="24">
+        <v>33.615400000000001</v>
       </c>
       <c r="O16" s="24">
-        <v>33.615400000000001</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="P16" s="24">
-        <v>2.5000000000000001E-3</v>
+        <v>1.26E-2</v>
       </c>
       <c r="Q16" s="24">
-        <v>1.26E-2</v>
+        <v>1.06E-2</v>
       </c>
       <c r="R16" s="24">
-        <v>1.06E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="S16" s="24">
-        <v>1.2500000000000001E-2</v>
+        <v>37.056399999999996</v>
       </c>
       <c r="T16" s="24">
-        <v>37.056399999999996</v>
+        <v>5.3E-3</v>
       </c>
       <c r="U16" s="24">
-        <v>5.3E-3</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="V16" s="24">
-        <v>1.0500000000000001E-2</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="W16" s="24">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="X16" s="24">
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>82</v>
       </c>
@@ -2671,62 +2626,58 @@
         <v>-0.27379999999999999</v>
       </c>
       <c r="E17" s="28">
-        <f t="shared" si="0"/>
-        <v>1.9000000000000128E-3</v>
+        <v>-4.0899999999999999E-2</v>
       </c>
       <c r="F17" s="28">
-        <v>-4.0899999999999999E-2</v>
-      </c>
-      <c r="G17" s="28">
         <v>-0.2757</v>
       </c>
+      <c r="H17" s="32">
+        <v>500</v>
+      </c>
       <c r="I17" s="32">
-        <v>500</v>
+        <v>3459</v>
       </c>
       <c r="J17" s="32">
+        <v>3460</v>
+      </c>
+      <c r="K17" s="32">
+        <v>3259</v>
+      </c>
+      <c r="L17" s="32">
         <v>3459</v>
       </c>
-      <c r="K17" s="32">
-        <v>3460</v>
-      </c>
-      <c r="L17" s="32">
-        <v>3259</v>
-      </c>
-      <c r="M17" s="32">
-        <v>3459</v>
+      <c r="N17" s="24">
+        <v>19.432700000000001</v>
       </c>
       <c r="O17" s="24">
-        <v>19.432700000000001</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="P17" s="24">
-        <v>2.2000000000000001E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="Q17" s="24">
-        <v>8.8000000000000005E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="R17" s="24">
-        <v>7.4999999999999997E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="S17" s="24">
-        <v>8.3000000000000001E-3</v>
+        <v>21.774699999999999</v>
       </c>
       <c r="T17" s="24">
-        <v>21.774699999999999</v>
+        <v>3.8E-3</v>
       </c>
       <c r="U17" s="24">
-        <v>3.8E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="V17" s="24">
-        <v>7.7999999999999996E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="W17" s="24">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="X17" s="24">
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>92</v>
       </c>
@@ -2736,7 +2687,7 @@
       <c r="C19" s="62"/>
       <c r="D19" s="62"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>79</v>
       </c>
@@ -2750,62 +2701,58 @@
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="E20" s="28">
-        <f t="shared" si="0"/>
-        <v>-1.17E-2</v>
+        <v>-6.5495999999999999</v>
       </c>
       <c r="F20" s="28">
-        <v>-6.5495999999999999</v>
-      </c>
-      <c r="G20" s="28">
         <v>4.7999999999999996E-3</v>
       </c>
+      <c r="H20" s="32">
+        <v>500</v>
+      </c>
       <c r="I20" s="32">
-        <v>500</v>
+        <v>2487</v>
       </c>
       <c r="J20" s="32">
+        <v>2488</v>
+      </c>
+      <c r="K20" s="32">
+        <v>4739</v>
+      </c>
+      <c r="L20" s="32">
         <v>2487</v>
       </c>
-      <c r="K20" s="32">
-        <v>2488</v>
-      </c>
-      <c r="L20" s="32">
-        <v>4739</v>
-      </c>
-      <c r="M20" s="32">
-        <v>2487</v>
+      <c r="N20" s="24">
+        <v>11.6623</v>
       </c>
       <c r="O20" s="24">
-        <v>11.6623</v>
+        <v>1.9E-3</v>
       </c>
       <c r="P20" s="24">
-        <v>1.9E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="Q20" s="24">
-        <v>5.7999999999999996E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="R20" s="24">
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="S20" s="24">
-        <v>5.5999999999999999E-3</v>
+        <v>12.8986</v>
       </c>
       <c r="T20" s="24">
-        <v>12.8986</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="U20" s="24">
-        <v>3.5000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="V20" s="24">
-        <v>7.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="W20" s="24">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="X20" s="24">
         <v>5.3E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>80</v>
       </c>
@@ -2819,62 +2766,58 @@
         <v>-1.41E-2</v>
       </c>
       <c r="E21" s="28">
-        <f t="shared" si="0"/>
-        <v>-1.29E-2</v>
+        <v>-7.1139999999999999</v>
       </c>
       <c r="F21" s="28">
-        <v>-7.1139999999999999</v>
-      </c>
-      <c r="G21" s="28">
         <v>-1.1999999999999999E-3</v>
       </c>
+      <c r="H21" s="32">
+        <v>500</v>
+      </c>
       <c r="I21" s="32">
-        <v>500</v>
+        <v>4805</v>
       </c>
       <c r="J21" s="32">
+        <v>4806</v>
+      </c>
+      <c r="K21" s="32">
+        <v>4801</v>
+      </c>
+      <c r="L21" s="32">
         <v>4805</v>
       </c>
-      <c r="K21" s="32">
-        <v>4806</v>
-      </c>
-      <c r="L21" s="32">
-        <v>4801</v>
-      </c>
-      <c r="M21" s="32">
-        <v>4805</v>
+      <c r="N21" s="24">
+        <v>2.1789999999999998</v>
       </c>
       <c r="O21" s="24">
-        <v>2.1789999999999998</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="P21" s="24">
-        <v>1.1999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="Q21" s="24">
         <v>1.8E-3</v>
       </c>
       <c r="R21" s="24">
-        <v>1.8E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="S21" s="24">
-        <v>1.6999999999999999E-3</v>
+        <v>2.6392000000000002</v>
       </c>
       <c r="T21" s="24">
-        <v>2.6392000000000002</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="U21" s="24">
-        <v>2.0999999999999999E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="V21" s="24">
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="W21" s="24">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="X21" s="24">
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>25</v>
       </c>
@@ -2888,62 +2831,58 @@
         <v>-7.7000000000000002E-3</v>
       </c>
       <c r="E22" s="28">
-        <f t="shared" si="0"/>
-        <v>-3.8000000000000004E-3</v>
+        <v>-2.0003000000000002</v>
       </c>
       <c r="F22" s="28">
-        <v>-2.0003000000000002</v>
-      </c>
-      <c r="G22" s="28">
         <v>-3.8999999999999998E-3</v>
       </c>
+      <c r="H22" s="32">
+        <v>500</v>
+      </c>
       <c r="I22" s="32">
-        <v>500</v>
+        <v>1137</v>
       </c>
       <c r="J22" s="32">
+        <v>1138</v>
+      </c>
+      <c r="K22" s="32">
+        <v>4016</v>
+      </c>
+      <c r="L22" s="32">
         <v>1137</v>
       </c>
-      <c r="K22" s="32">
-        <v>1138</v>
-      </c>
-      <c r="L22" s="32">
-        <v>4016</v>
-      </c>
-      <c r="M22" s="32">
-        <v>1137</v>
+      <c r="N22" s="24">
+        <v>2.6092</v>
       </c>
       <c r="O22" s="24">
-        <v>2.6092</v>
+        <v>1.8E-3</v>
       </c>
       <c r="P22" s="24">
-        <v>1.8E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="Q22" s="24">
-        <v>3.3999999999999998E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="R22" s="24">
         <v>3.3E-3</v>
       </c>
       <c r="S22" s="24">
-        <v>3.3E-3</v>
+        <v>3.0699000000000001</v>
       </c>
       <c r="T22" s="24">
-        <v>3.0699000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U22" s="24">
-        <v>3.0000000000000001E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="V22" s="24">
-        <v>4.7000000000000002E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="W22" s="24">
         <v>4.3E-3</v>
       </c>
-      <c r="X22" s="24">
-        <v>4.3E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>81</v>
       </c>
@@ -2957,62 +2896,58 @@
         <v>-6.4999999999999997E-3</v>
       </c>
       <c r="E23" s="28">
-        <f t="shared" si="0"/>
-        <v>-1.1299999999999999E-2</v>
+        <v>-8.6523000000000003</v>
       </c>
       <c r="F23" s="28">
-        <v>-8.6523000000000003</v>
-      </c>
-      <c r="G23" s="28">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="I23" s="32">
+      <c r="H23" s="32">
         <v>500</v>
       </c>
+      <c r="I23" s="34">
+        <v>4838</v>
+      </c>
       <c r="J23" s="34">
+        <v>470</v>
+      </c>
+      <c r="K23" s="34">
+        <v>4928</v>
+      </c>
+      <c r="L23" s="34">
         <v>4838</v>
       </c>
-      <c r="K23" s="34">
-        <v>470</v>
-      </c>
-      <c r="L23" s="34">
-        <v>4928</v>
-      </c>
-      <c r="M23" s="34">
-        <v>4838</v>
+      <c r="N23" s="24">
+        <v>7.2591999999999999</v>
       </c>
       <c r="O23" s="24">
-        <v>7.2591999999999999</v>
+        <v>1.4E-3</v>
       </c>
       <c r="P23" s="24">
-        <v>1.4E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="Q23" s="24">
-        <v>3.7000000000000002E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="R23" s="24">
-        <v>3.5999999999999999E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="S23" s="24">
+        <v>8.2581000000000007</v>
+      </c>
+      <c r="T23" s="24">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="U23" s="24">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="V23" s="24">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="T23" s="24">
-        <v>8.2581000000000007</v>
-      </c>
-      <c r="U23" s="24">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="V23" s="24">
+      <c r="W23" s="24">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="W23" s="24">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="X23" s="24">
-        <v>4.1999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>82</v>
       </c>
@@ -3026,58 +2961,54 @@
         <v>-0.03</v>
       </c>
       <c r="E24" s="28">
-        <f t="shared" si="0"/>
-        <v>-2.3599999999999999E-2</v>
+        <v>-12.7331</v>
       </c>
       <c r="F24" s="28">
-        <v>-12.7331</v>
-      </c>
-      <c r="G24" s="28">
         <v>-6.4000000000000003E-3</v>
       </c>
+      <c r="H24" s="32">
+        <v>500</v>
+      </c>
       <c r="I24" s="32">
-        <v>500</v>
+        <v>4773</v>
       </c>
       <c r="J24" s="32">
+        <v>4774</v>
+      </c>
+      <c r="K24" s="32">
+        <v>4733</v>
+      </c>
+      <c r="L24" s="32">
         <v>4773</v>
       </c>
-      <c r="K24" s="32">
-        <v>4774</v>
-      </c>
-      <c r="L24" s="32">
-        <v>4733</v>
-      </c>
-      <c r="M24" s="32">
-        <v>4773</v>
+      <c r="N24" s="24">
+        <v>4.6547000000000001</v>
       </c>
       <c r="O24" s="24">
-        <v>4.6547000000000001</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="P24" s="24">
-        <v>1.1999999999999999E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="Q24" s="24">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="R24" s="24">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="S24" s="24">
-        <v>2.8E-3</v>
+        <v>4.8853999999999997</v>
       </c>
       <c r="T24" s="24">
-        <v>4.8853999999999997</v>
+        <v>1.8E-3</v>
       </c>
       <c r="U24" s="24">
-        <v>1.8E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="V24" s="24">
-        <v>3.3E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="W24" s="24">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="X24" s="24">
         <v>3.3E-3</v>
       </c>
     </row>
@@ -3086,18 +3017,30 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -3122,7 +3065,7 @@
         <v>88</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C1" s="67" t="s">
         <v>108</v>
@@ -3143,7 +3086,7 @@
       </c>
       <c r="J1" s="70"/>
       <c r="K1" s="68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -3155,19 +3098,19 @@
         <v>36</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I2" s="39" t="s">
         <v>36</v>
       </c>
       <c r="J2" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K2" s="69"/>
     </row>
@@ -3204,15 +3147,15 @@
         <v>79</v>
       </c>
       <c r="B6" s="25">
-        <f>approx!V6/approx!U6</f>
+        <f>approx!U6/approx!T6</f>
         <v>1.7586206896551726</v>
       </c>
       <c r="C6" s="15">
-        <f>MAX(0, (approx!V6*(approx!K6-1)+approx!T6)/approx!U6-approx!J6)</f>
+        <f>MAX(0, (approx!U6*(approx!J6-1)+approx!S6)/approx!T6-approx!I6)</f>
         <v>4597.0344827586214</v>
       </c>
       <c r="D6" s="45">
-        <f>approx!J6+C6</f>
+        <f>approx!I6+C6</f>
         <v>7070.0344827586214</v>
       </c>
       <c r="E6" s="21">
@@ -3227,14 +3170,14 @@
         <v>117</v>
       </c>
       <c r="H6" s="15">
-        <f>approx!K6</f>
+        <f>approx!J6</f>
         <v>2474</v>
       </c>
       <c r="I6" s="40" t="s">
         <v>122</v>
       </c>
       <c r="J6" s="25">
-        <f>H6*approx!V6</f>
+        <f>H6*approx!U6</f>
         <v>12.617400000000002</v>
       </c>
       <c r="K6" s="41">
@@ -3247,15 +3190,15 @@
         <v>114</v>
       </c>
       <c r="B7" s="25">
-        <f>approx!Q7/approx!P7</f>
+        <f>approx!P7/approx!O7</f>
         <v>1.3846153846153846</v>
       </c>
       <c r="C7" s="15">
-        <f>MAX(0, (approx!V7*(approx!K7-1)+approx!T7)/approx!U7-approx!J7)</f>
+        <f>MAX(0, (approx!U7*(approx!J7-1)+approx!S7)/approx!T7-approx!I7)</f>
         <v>4444.666666666667</v>
       </c>
       <c r="D7" s="45">
-        <f>approx!J7+C7</f>
+        <f>approx!I7+C7</f>
         <v>5359.666666666667</v>
       </c>
       <c r="E7" s="47">
@@ -3270,14 +3213,14 @@
         <v>117</v>
       </c>
       <c r="H7" s="15">
-        <f>approx!K7</f>
+        <f>approx!J7</f>
         <v>4489</v>
       </c>
       <c r="I7" s="40" t="s">
         <v>128</v>
       </c>
       <c r="J7" s="25">
-        <f>H7*approx!V7</f>
+        <f>H7*approx!U7</f>
         <v>10.773599999999998</v>
       </c>
       <c r="K7" s="41">
@@ -3290,15 +3233,15 @@
         <v>25</v>
       </c>
       <c r="B8" s="25">
-        <f>approx!V8/approx!U8</f>
+        <f>approx!U8/approx!T8</f>
         <v>1.5555555555555554</v>
       </c>
       <c r="C8" s="15">
-        <f>MAX(0, (approx!V8*(approx!K8-1)+approx!T8)/approx!U8-approx!J8)</f>
+        <f>MAX(0, (approx!U8*(approx!J8-1)+approx!S8)/approx!T8-approx!I8)</f>
         <v>3154.7777777777765</v>
       </c>
       <c r="D8" s="45">
-        <f>approx!J8+C8</f>
+        <f>approx!I8+C8</f>
         <v>7298.7777777777765</v>
       </c>
       <c r="E8" s="46">
@@ -3312,15 +3255,15 @@
         <v>5153</v>
       </c>
       <c r="H8" s="15">
-        <f>approx!K8</f>
+        <f>approx!J8</f>
         <v>4145</v>
       </c>
       <c r="I8" s="25">
-        <f>approx!U8*G8</f>
+        <f>approx!T8*G8</f>
         <v>13.9131</v>
       </c>
       <c r="J8" s="25">
-        <f>H8*approx!V8</f>
+        <f>H8*approx!U8</f>
         <v>17.408999999999999</v>
       </c>
       <c r="K8" s="48">
@@ -3333,15 +3276,15 @@
         <v>81</v>
       </c>
       <c r="B9" s="25">
-        <f>approx!V9/approx!U9</f>
+        <f>approx!U9/approx!T9</f>
         <v>1.4782608695652173</v>
       </c>
       <c r="C9" s="15">
-        <f>MAX(0, (approx!V9*(approx!K9-1)+approx!T9)/approx!U9-approx!J9)</f>
+        <f>MAX(0, (approx!U9*(approx!J9-1)+approx!S9)/approx!T9-approx!I9)</f>
         <v>3196.478260869565</v>
       </c>
       <c r="D9" s="45">
-        <f>approx!J9+C9</f>
+        <f>approx!I9+C9</f>
         <v>5058.478260869565</v>
       </c>
       <c r="E9" s="21">
@@ -3356,14 +3299,14 @@
         <v>117</v>
       </c>
       <c r="H9" s="15">
-        <f>approx!K9</f>
+        <f>approx!J9</f>
         <v>1357</v>
       </c>
       <c r="I9" s="40" t="s">
         <v>124</v>
       </c>
       <c r="J9" s="25">
-        <f>H9*approx!V9</f>
+        <f>H9*approx!U9</f>
         <v>4.6137999999999995</v>
       </c>
       <c r="K9" s="41">
@@ -3376,15 +3319,15 @@
         <v>82</v>
       </c>
       <c r="B10" s="25">
-        <f>approx!V10/approx!U10</f>
+        <f>approx!U10/approx!T10</f>
         <v>1.3636363636363635</v>
       </c>
       <c r="C10" s="15">
-        <f>MAX(0, (approx!V10*(approx!K10-1)+approx!T10)/approx!U10-approx!J10)</f>
+        <f>MAX(0, (approx!U10*(approx!J10-1)+approx!S10)/approx!T10-approx!I10)</f>
         <v>3349.6818181818171</v>
       </c>
       <c r="D10" s="45">
-        <f>approx!J10+C10</f>
+        <f>approx!I10+C10</f>
         <v>7205.6818181818171</v>
       </c>
       <c r="E10" s="47">
@@ -3399,14 +3342,14 @@
         <v>117</v>
       </c>
       <c r="H10" s="15">
-        <f>approx!K10</f>
+        <f>approx!J10</f>
         <v>3857</v>
       </c>
       <c r="I10" s="40" t="s">
         <v>123</v>
       </c>
       <c r="J10" s="25">
-        <f>H10*approx!V10</f>
+        <f>H10*approx!U10</f>
         <v>11.571</v>
       </c>
       <c r="K10" s="41">
@@ -3432,15 +3375,15 @@
         <v>79</v>
       </c>
       <c r="B13" s="25">
-        <f>approx!V13/approx!U13</f>
+        <f>approx!U13/approx!T13</f>
         <v>2.358490566037736</v>
       </c>
       <c r="C13" s="15">
-        <f>MAX(0, (approx!V13*(approx!K13-1)+approx!T13)/approx!U13-approx!J13)</f>
+        <f>MAX(0, (approx!U13*(approx!J13-1)+approx!S13)/approx!T13-approx!I13)</f>
         <v>10270.396226415094</v>
       </c>
       <c r="D13" s="45">
-        <f>approx!J13+C13</f>
+        <f>approx!I13+C13</f>
         <v>12137.396226415094</v>
       </c>
       <c r="E13" s="21">
@@ -3455,14 +3398,14 @@
         <v>117</v>
       </c>
       <c r="H13" s="15">
-        <f>approx!K13</f>
+        <f>approx!J13</f>
         <v>1868</v>
       </c>
       <c r="I13" s="40" t="s">
         <v>125</v>
       </c>
       <c r="J13" s="25">
-        <f>H13*approx!V13</f>
+        <f>H13*approx!U13</f>
         <v>23.35</v>
       </c>
       <c r="K13" s="41">
@@ -3475,15 +3418,15 @@
         <v>80</v>
       </c>
       <c r="B14" s="25">
-        <f>approx!V14/approx!U14</f>
+        <f>approx!U14/approx!T14</f>
         <v>1.8135593220338984</v>
       </c>
       <c r="C14" s="15">
-        <f>MAX(0, (approx!V14*(approx!K14-1)+approx!T14)/approx!U14-approx!J14)</f>
+        <f>MAX(0, (approx!U14*(approx!J14-1)+approx!S14)/approx!T14-approx!I14)</f>
         <v>5221.0677966101703</v>
       </c>
       <c r="D14" s="45">
-        <f>approx!J14+C14</f>
+        <f>approx!I14+C14</f>
         <v>6706.0677966101703</v>
       </c>
       <c r="E14" s="21">
@@ -3498,14 +3441,14 @@
         <v>117</v>
       </c>
       <c r="H14" s="15">
-        <f>approx!K14</f>
+        <f>approx!J14</f>
         <v>1486</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>126</v>
       </c>
       <c r="J14" s="25">
-        <f>H14*approx!V14</f>
+        <f>H14*approx!U14</f>
         <v>15.9002</v>
       </c>
       <c r="K14" s="41">
@@ -3518,15 +3461,15 @@
         <v>25</v>
       </c>
       <c r="B15" s="25">
-        <f>approx!V15/approx!U15</f>
+        <f>approx!U15/approx!T15</f>
         <v>1.4666666666666666</v>
       </c>
       <c r="C15" s="15">
-        <f>MAX(0, (approx!V15*(approx!K15-1)+approx!T15)/approx!U15-approx!J15)</f>
+        <f>MAX(0, (approx!U15*(approx!J15-1)+approx!S15)/approx!T15-approx!I15)</f>
         <v>1255.4666666666667</v>
       </c>
       <c r="D15" s="49">
-        <f>approx!J15+C15</f>
+        <f>approx!I15+C15</f>
         <v>1503.4666666666667</v>
       </c>
       <c r="E15" s="21">
@@ -3541,14 +3484,14 @@
         <v>117</v>
       </c>
       <c r="H15" s="15">
-        <f>approx!K15</f>
+        <f>approx!J15</f>
         <v>249</v>
       </c>
       <c r="I15" s="40" t="s">
         <v>127</v>
       </c>
       <c r="J15" s="25">
-        <f>H15*approx!V15</f>
+        <f>H15*approx!U15</f>
         <v>2.7389999999999999</v>
       </c>
       <c r="K15" s="41">
@@ -3561,15 +3504,15 @@
         <v>81</v>
       </c>
       <c r="B16" s="25">
-        <f>approx!V16/approx!U16</f>
+        <f>approx!U16/approx!T16</f>
         <v>1.9811320754716981</v>
       </c>
       <c r="C16" s="15">
-        <f>MAX(0, (approx!V16*(approx!K16-1)+approx!T16)/approx!U16-approx!J16)</f>
+        <f>MAX(0, (approx!U16*(approx!J16-1)+approx!S16)/approx!T16-approx!I16)</f>
         <v>7890.4905660377353</v>
       </c>
       <c r="D16" s="45">
-        <f>approx!J16+C16</f>
+        <f>approx!I16+C16</f>
         <v>8806.4905660377353</v>
       </c>
       <c r="E16" s="21">
@@ -3584,14 +3527,14 @@
         <v>117</v>
       </c>
       <c r="H16" s="15">
-        <f>approx!K16</f>
+        <f>approx!J16</f>
         <v>917</v>
       </c>
       <c r="I16" s="40" t="s">
         <v>125</v>
       </c>
       <c r="J16" s="25">
-        <f>H16*approx!V16</f>
+        <f>H16*approx!U16</f>
         <v>9.6285000000000007</v>
       </c>
       <c r="K16" s="41">
@@ -3604,15 +3547,15 @@
         <v>82</v>
       </c>
       <c r="B17" s="25">
-        <f>approx!V17/approx!U17</f>
+        <f>approx!U17/approx!T17</f>
         <v>2.0526315789473681</v>
       </c>
       <c r="C17" s="15">
-        <f>MAX(0, (approx!V17*(approx!K17-1)+approx!T17)/approx!U17-approx!J17)</f>
+        <f>MAX(0, (approx!U17*(approx!J17-1)+approx!S17)/approx!T17-approx!I17)</f>
         <v>9371.2368421052633</v>
       </c>
       <c r="D17" s="45">
-        <f>approx!J17+C17</f>
+        <f>approx!I17+C17</f>
         <v>12830.236842105263</v>
       </c>
       <c r="E17" s="21">
@@ -3627,14 +3570,14 @@
         <v>117</v>
       </c>
       <c r="H17" s="15">
-        <f>approx!K17</f>
+        <f>approx!J17</f>
         <v>3460</v>
       </c>
       <c r="I17" s="40" t="s">
         <v>118</v>
       </c>
       <c r="J17" s="25">
-        <f>H17*approx!V17</f>
+        <f>H17*approx!U17</f>
         <v>26.988</v>
       </c>
       <c r="K17" s="41">
@@ -3660,15 +3603,15 @@
         <v>79</v>
       </c>
       <c r="B20" s="25">
-        <f>approx!V20/approx!U20</f>
+        <f>approx!U20/approx!T20</f>
         <v>2</v>
       </c>
       <c r="C20" s="15">
-        <f>MAX(0, (approx!V20*(approx!K20-1)+approx!T20)/approx!U20-approx!J20)</f>
+        <f>MAX(0, (approx!U20*(approx!J20-1)+approx!S20)/approx!T20-approx!I20)</f>
         <v>6172.3142857142866</v>
       </c>
       <c r="D20" s="45">
-        <f>approx!J20+C20</f>
+        <f>approx!I20+C20</f>
         <v>8659.3142857142866</v>
       </c>
       <c r="E20" s="21">
@@ -3683,14 +3626,14 @@
         <v>117</v>
       </c>
       <c r="H20" s="15">
-        <f>approx!K20</f>
+        <f>approx!J20</f>
         <v>2488</v>
       </c>
       <c r="I20" s="40" t="s">
         <v>130</v>
       </c>
       <c r="J20" s="25">
-        <f>H20*approx!V20</f>
+        <f>H20*approx!U20</f>
         <v>17.416</v>
       </c>
       <c r="K20" s="41">
@@ -3703,15 +3646,15 @@
         <v>80</v>
       </c>
       <c r="B21" s="25">
-        <f>approx!V21/approx!U21</f>
+        <f>approx!U21/approx!T21</f>
         <v>1.1428571428571428</v>
       </c>
       <c r="C21" s="15">
-        <f>MAX(0, (approx!V21*(approx!K21-1)+approx!T21)/approx!U21-approx!J21)</f>
+        <f>MAX(0, (approx!U21*(approx!J21-1)+approx!S21)/approx!T21-approx!I21)</f>
         <v>1943.1904761904761</v>
       </c>
       <c r="D21" s="45">
-        <f>approx!J21+C21</f>
+        <f>approx!I21+C21</f>
         <v>6748.1904761904761</v>
       </c>
       <c r="E21" s="21">
@@ -3726,14 +3669,14 @@
         <v>117</v>
       </c>
       <c r="H21" s="15">
-        <f>approx!K21</f>
+        <f>approx!J21</f>
         <v>4806</v>
       </c>
       <c r="I21" s="40" t="s">
         <v>119</v>
       </c>
       <c r="J21" s="25">
-        <f>H21*approx!V21</f>
+        <f>H21*approx!U21</f>
         <v>11.5344</v>
       </c>
       <c r="K21" s="41">
@@ -3746,15 +3689,15 @@
         <v>25</v>
       </c>
       <c r="B22" s="25">
-        <f>approx!V22/approx!U22</f>
+        <f>approx!U22/approx!T22</f>
         <v>1.5666666666666667</v>
       </c>
       <c r="C22" s="15">
-        <f>MAX(0, (approx!V22*(approx!K22-1)+approx!T22)/approx!U22-approx!J22)</f>
+        <f>MAX(0, (approx!U22*(approx!J22-1)+approx!S22)/approx!T22-approx!I22)</f>
         <v>1667.6</v>
       </c>
       <c r="D22" s="49">
-        <f>approx!J22+C22</f>
+        <f>approx!I22+C22</f>
         <v>2804.6</v>
       </c>
       <c r="E22" s="21">
@@ -3769,14 +3712,14 @@
         <v>117</v>
       </c>
       <c r="H22" s="15">
-        <f>approx!K22</f>
+        <f>approx!J22</f>
         <v>1138</v>
       </c>
       <c r="I22" s="40" t="s">
         <v>129</v>
       </c>
       <c r="J22" s="25">
-        <f>H22*approx!V22</f>
+        <f>H22*approx!U22</f>
         <v>5.3486000000000002</v>
       </c>
       <c r="K22" s="41">
@@ -3789,15 +3732,15 @@
         <v>81</v>
       </c>
       <c r="B23" s="25">
-        <f>approx!V23/approx!U23</f>
+        <f>approx!U23/approx!T23</f>
         <v>1.75</v>
       </c>
       <c r="C23" s="15">
-        <f>MAX(0, (approx!V23*(approx!K23-1)+approx!T23)/approx!U23-approx!J23)</f>
+        <f>MAX(0, (approx!U23*(approx!J23-1)+approx!S23)/approx!T23-approx!I23)</f>
         <v>0</v>
       </c>
       <c r="D23" s="49">
-        <f>approx!J23+C23</f>
+        <f>approx!I23+C23</f>
         <v>4838</v>
       </c>
       <c r="E23" s="21">
@@ -3812,14 +3755,14 @@
         <v>117</v>
       </c>
       <c r="H23" s="15">
-        <f>approx!K23</f>
+        <f>approx!J23</f>
         <v>470</v>
       </c>
       <c r="I23" s="40" t="s">
         <v>128</v>
       </c>
       <c r="J23" s="25">
-        <f>H23*approx!V23</f>
+        <f>H23*approx!U23</f>
         <v>1.974</v>
       </c>
       <c r="K23" s="41">
@@ -3832,15 +3775,15 @@
         <v>82</v>
       </c>
       <c r="B24" s="25">
-        <f>approx!V24/approx!U24</f>
+        <f>approx!U24/approx!T24</f>
         <v>1.8333333333333335</v>
       </c>
       <c r="C24" s="15">
-        <f>MAX(0, (approx!V24*(approx!K24-1)+approx!T24)/approx!U24-approx!J24)</f>
+        <f>MAX(0, (approx!U24*(approx!J24-1)+approx!S24)/approx!T24-approx!I24)</f>
         <v>6691.6111111111113</v>
       </c>
       <c r="D24" s="45">
-        <f>approx!J24+C24</f>
+        <f>approx!I24+C24</f>
         <v>11464.611111111111</v>
       </c>
       <c r="E24" s="21">
@@ -3855,14 +3798,14 @@
         <v>117</v>
       </c>
       <c r="H24" s="15">
-        <f>approx!K24</f>
+        <f>approx!J24</f>
         <v>4774</v>
       </c>
       <c r="I24" s="40" t="s">
         <v>120</v>
       </c>
       <c r="J24" s="25">
-        <f>H24*approx!V24</f>
+        <f>H24*approx!U24</f>
         <v>15.754199999999999</v>
       </c>
       <c r="K24" s="41">
@@ -3872,7 +3815,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -3882,23 +3825,23 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3910,7 +3853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -3957,7 +3900,7 @@
         <v>131</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>2</v>

--- a/docs/cs534L-SAGmf.xlsx
+++ b/docs/cs534L-SAGmf.xlsx
@@ -11,7 +11,7 @@
     <sheet name="epinions" sheetId="5" r:id="rId2"/>
     <sheet name="parallel" sheetId="3" r:id="rId3"/>
     <sheet name="approx" sheetId="2" r:id="rId4"/>
-    <sheet name="lineSearch" sheetId="8" r:id="rId5"/>
+    <sheet name="lineSearch" sheetId="9" r:id="rId5"/>
     <sheet name="followUp" sheetId="6" r:id="rId6"/>
     <sheet name="full" sheetId="7" r:id="rId7"/>
     <sheet name="memory" sheetId="4" r:id="rId8"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="142">
   <si>
     <t>Dataset</t>
   </si>
@@ -572,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -692,6 +692,27 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -711,6 +732,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1353,23 +1380,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="59"/>
+      <c r="C1" s="68"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="60" t="s">
+      <c r="F1" s="70"/>
+      <c r="G1" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60" t="s">
+      <c r="H1" s="69"/>
+      <c r="I1" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
@@ -1793,47 +1820,47 @@
       <c r="A1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
       <c r="E1" s="53"/>
       <c r="F1" s="56"/>
       <c r="G1" s="27"/>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
       <c r="L1" s="58"/>
       <c r="M1" s="30"/>
-      <c r="N1" s="64" t="s">
+      <c r="N1" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
       <c r="Q1" s="55"/>
       <c r="R1" s="57"/>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="57"/>
       <c r="X1" s="26"/>
-      <c r="Y1" s="63" t="s">
+      <c r="Y1" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63" t="s">
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -1963,11 +1990,11 @@
       <c r="A5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="53"/>
       <c r="F5" s="56"/>
       <c r="G5" s="27"/>
@@ -2346,11 +2373,11 @@
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -2681,11 +2708,11 @@
       <c r="A19" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -3030,12 +3057,496 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="62" customWidth="1"/>
+    <col min="2" max="4" width="10.5546875" style="67" customWidth="1"/>
+    <col min="5" max="6" width="11.21875" style="67" customWidth="1"/>
+    <col min="7" max="7" width="2.88671875" style="67" customWidth="1"/>
+    <col min="8" max="9" width="7.5546875" style="36" customWidth="1"/>
+    <col min="10" max="12" width="8.77734375" style="36" customWidth="1"/>
+    <col min="13" max="13" width="3" style="31" customWidth="1"/>
+    <col min="14" max="19" width="8.109375" style="24" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" style="24" customWidth="1"/>
+    <col min="21" max="23" width="8.33203125" style="24" customWidth="1"/>
+    <col min="24" max="24" width="2.109375" style="24" customWidth="1"/>
+    <col min="25" max="26" width="7" style="11" customWidth="1"/>
+    <col min="27" max="27" width="8" style="11" customWidth="1"/>
+    <col min="28" max="29" width="7" style="11" customWidth="1"/>
+    <col min="30" max="30" width="7.44140625" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+    </row>
+    <row r="2" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="30"/>
+      <c r="N2" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q2" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="S2" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z2" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB2" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC2" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" s="59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36">
+        <v>500</v>
+      </c>
+      <c r="I3" s="36">
+        <v>5000</v>
+      </c>
+      <c r="J3" s="36">
+        <v>5000</v>
+      </c>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+    </row>
+    <row r="6" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67">
+        <v>359.86020000000002</v>
+      </c>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36">
+        <v>2473</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24">
+        <v>1.0085</v>
+      </c>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24">
+        <v>0.43840000000000001</v>
+      </c>
+      <c r="U6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+    </row>
+    <row r="7" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67">
+        <v>0.53690000000000004</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36">
+        <v>63</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24">
+        <v>0.21790000000000001</v>
+      </c>
+      <c r="U7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+    </row>
+    <row r="8" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67">
+        <v>1.319</v>
+      </c>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36">
+        <v>819</v>
+      </c>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24">
+        <v>1.0021</v>
+      </c>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24">
+        <v>0.43340000000000001</v>
+      </c>
+      <c r="U8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+    </row>
+    <row r="9" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67">
+        <v>19203</v>
+      </c>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36">
+        <v>3329</v>
+      </c>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24">
+        <v>0.22889999999999999</v>
+      </c>
+      <c r="U9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+    </row>
+    <row r="10" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67">
+        <v>1148200000000000</v>
+      </c>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36">
+        <v>3856</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24">
+        <v>0.13780000000000001</v>
+      </c>
+      <c r="U10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" s="66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" s="66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" s="66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" s="66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="H1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3064,36 +3575,36 @@
       <c r="A1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="70" t="s">
+      <c r="H1" s="70"/>
+      <c r="I1" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="68" t="s">
+      <c r="J1" s="81"/>
+      <c r="K1" s="79" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="20" t="s">
         <v>36</v>
       </c>
@@ -3112,7 +3623,7 @@
       <c r="J2" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="K2" s="69"/>
+      <c r="K2" s="80"/>
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
@@ -3137,10 +3648,10 @@
       <c r="A5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="60"/>
+      <c r="F5" s="69"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -3365,10 +3876,10 @@
         <v>91</v>
       </c>
       <c r="D12" s="45"/>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="60"/>
+      <c r="F12" s="69"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -3593,10 +4104,10 @@
         <v>92</v>
       </c>
       <c r="D19" s="45"/>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="60"/>
+      <c r="F19" s="69"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -3874,14 +4385,14 @@
       <c r="A1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="61"/>
+      <c r="E1" s="70"/>
       <c r="J1" t="s">
         <v>113</v>
       </c>
